--- a/output/GOres_D62DIFFRAPA.xlsx
+++ b/output/GOres_D62DIFFRAPA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
   <si>
     <t xml:space="preserve">query</t>
   </si>
@@ -56,6 +56,12 @@
     <t xml:space="preserve">parents</t>
   </si>
   <si>
+    <t xml:space="preserve">evidence_codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intersection</t>
+  </si>
+  <si>
     <t xml:space="preserve">query_1</t>
   </si>
   <si>
@@ -71,6 +77,27 @@
     <t xml:space="preserve">GO:0008150</t>
   </si>
   <si>
+    <t xml:space="preserve">IMP ISS IBA TAS IEA,TAS IEA,IMP ISS NAS IEA,IDA IEA,IMP,IBA IEA,IEA,ISS IEA,ISS TAS IEA,IBA IEA,IDA IMP ISS IBA IEA,IEA,IEA,IBA,IDA IEA,IEA,IDA ISS IBA IEA,IEP,IEA,ISS IEA,IDA IMP IGI ISS IBA IEA,IBA IEA,IMP IBA IEA,ISS ISO IBA TAS NAS IEA,IEA,ISS,ISS IEA,IBA IEA,IEA,IMP ISS IEA,IEA,NAS IEA,IEA,IGI IEA,IDA IMP IEP ISS NAS IEA,IEP ISS TAS IEA,IEA,IDA ISS IEA,IMP,IEA,IDA IPI ISS NAS IEA,IMP IBA IEA,IMP IGI ISS IEA,IMP ISS IEA,IEA,IDA ISS IC IEA,IEP NAS IEA,IBA TAS IEA,ISS IBA IEA,IBA IEA,IEA,IEA,ISS,IEP IEA,HEP IEA,IEA,IEA,IEA,ISS IBA,IDA IEA,TAS IEA,IBA TAS IEA,IDA ISS NAS,ISS IEA,IEA,IMP IBA,IBA,IEA,IDA ISS IBA IEA,IEA,IEP ISS IEA,IEA,IDA IMP NAS IEA,IEP ISS IBA TAS IEA,IDA IMP,ISS,IDA IMP IGI IEP IBA TAS NAS IC,IEA,ISS,TAS IEA,ISS IEA,IDA IBA,ISS IBA IEA,IEA,ISS,IMP,IBA IEA,ISS IEA,HEP,IDA IBA TAS IEA,IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,656,84879,3491,2633,63827,3766,50486,1959,2674,4038,254263,2,79365,6857,688,1948,6252,89932,26153,7057,4756,4916,2903,729993,51704,5579,999,54768,5187,7153,10882,113026,4804,2302,361,1995,9518,79784,92749,3625,1134,8324,8609,3488,5270,92737,4826,55959,116448,1827,3708,11170,1295,7018,5947,5806,10417,23284,9508,8507,1946,6695,1958,1839,23286,1843,10814,84062,3400,7021,1490,10457,4852,6424,81628,5054,2861,10395,1808,23643,11075,6383,10655,1029,54566,1620,5730,4129,1641,1069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell-cell signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007154, GO:0023052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS IEA,IDA,IEA,IEA,IDA IMP IBA IEA,IEA,ISS IBA TAS IEA,IDA,TAS,NAS IEA,ISS ISO IBA TAS NAS IEA,ISS IBA IEA,ISS,IEA,IEA,IBA,IEA,TAS,IPI ISS IEA,IMP IBA IEA,IDA IMP IBA NAS IEA,IMP,IEA,IBA,IDA IBA IEA,IEA,ISS,IBA,ISS IEA,TAS,IEA,ISS IBA IEA,ISS IBA IEA,IBA,IMP,IMP,TAS IEA,IDA IMP IGI ISS IBA NAS IEA,IDA ISS IBA TAS NAS IEA,IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,5865,3766,1959,4038,254263,6857,688,1948,23002,2903,729993,51704,5579,999,794,4804,9518,3625,1134,8324,8609,5270,4826,55959,3708,11170,83888,1946,9547,1958,10814,84062,10590,7021,10457,4852,6424,9568,4129</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0048856</t>
   </si>
   <si>
@@ -80,6 +107,12 @@
     <t xml:space="preserve">GO:0032502</t>
   </si>
   <si>
+    <t xml:space="preserve">ISS IBA TAS IEA,TAS IEA,IMP ISS IEA,IDA IEA,IDA,IBA IEA,IEA,ISS TAS IEA,IBA IEA,IEA,IDA ISS IBA IEA,IEA,ISS IBA IEA,IDA IEA,IEA,IDA ISS IBA TAS IEA,NAS,IEP,IEA,ISS IEA,IDA IMP IGI IBA IEA,IBA IEA,IMP IBA IEA,NAS IEA,ISS,ISS IEA,IBA IEA,IEA,IEA,IEA,IEA,IGI IEA,IDA IMP IEP ISS NAS IEA,IEA,IEA,IMP IEA,IEA,NAS IEA,IMP,IMP IGI ISS NAS IEA,IMP ISS IEA,IEA,IDA IEA,IEP NAS IEA,IBA TAS IEA,ISS IBA IEA,IBA IEA,IEA,IEA,IEP IEA,IEA,IEA,IEA,ISS IBA,IEA,TAS IEA,IDA IBA TAS IEA,IEA,IDA ISS NAS,ISS IEA,TAS IEA,IBA,IEA,IDA ISS IBA IEA,IEA,IEP ISS IBA IEA,TAS IEA,NAS,IEP TAS,IDA IMP IEA,ISS,IDA IMP IGI IEP IBA,IEA,IMP ISS,TAS IEA,IDA IBA,ISS IBA IEA,IEA,ISS,IBA IEA,HEP,IDA IBA TAS IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,656,84879,3491,10628,63827,3766,1959,2674,5654,4038,2,79365,6857,688,1948,23002,6252,89932,26153,7057,4756,4916,2903,51704,5579,999,54768,7153,10882,113026,4804,2302,1995,9518,79784,92749,3625,1134,8324,8609,3488,5270,92737,4826,55959,116448,1827,3708,1295,7018,5947,5806,23284,9508,8507,1946,9547,6695,1958,1839,1843,10814,84062,3400,7021,1490,10457,4852,6424,81628,5054,2861,10395,1808,11075,6383,10655,1029,1620,4129,1641</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0048731</t>
   </si>
   <si>
@@ -89,13 +122,10 @@
     <t xml:space="preserve">GO:0007275, GO:0048856</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0007267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell-cell signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0007154, GO:0023052</t>
+    <t xml:space="preserve">ISS IBA TAS IEA,TAS IEA,IMP ISS IEA,IEA,IBA IEA,IEA,ISS TAS IEA,IBA IEA,IDA ISS IBA IEA,IEA,IBA,IDA IEA,IEA,IDA ISS IBA IEA,IEP,IEA,ISS IEA,IDA IMP IGI IBA IEA,IBA IEA,IMP IBA IEA,NAS IEA,ISS,ISS IEA,IBA IEA,IEA,IEA,IEA,IGI IEA,IDA IEP ISS NAS IEA,IEA,IEA,NAS IEA,IGI ISS,ISS IEA,IEA,IDA IEA,IEP NAS IEA,IBA TAS IEA,ISS IBA IEA,IBA IEA,IEA,IEA,ISS IBA,TAS IEA,IBA TAS IEA,IDA ISS NAS,ISS,IEA,IDA ISS IBA IEA,IEA,IEP ISS IEA,IEA,NAS,IEP TAS,IMP,ISS,IMP IGI IEP IBA,IEA,ISS,TAS IEA,IDA IBA,ISS IBA IEA,IEA,IBA IEA,HEP,IDA IBA TAS IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,656,84879,3491,63827,3766,1959,2674,4038,2,79365,6857,688,1948,6252,89932,26153,7057,4756,4916,2903,51704,5579,999,54768,10882,113026,4804,2302,1995,92749,3625,8324,8609,3488,5270,92737,4826,55959,116448,1295,5806,23284,8507,1946,6695,1958,10814,84062,3400,7021,1490,10457,4852,6424,81628,5054,2861,10395,1808,11075,6383,10655,1620,4129,1641</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0007275</t>
@@ -107,9 +137,48 @@
     <t xml:space="preserve">GO:0032501, GO:0048856</t>
   </si>
   <si>
+    <t xml:space="preserve">ISS IBA TAS IEA,TAS IEA,IMP ISS IEA,IDA IEA,IBA IEA,IEA,ISS TAS IEA,IBA IEA,IDA ISS IBA IEA,IEA,IBA,IDA IEA,IEA,IDA ISS IBA IEA,IEP,IEA,ISS IEA,IDA IMP IGI IBA IEA,IBA IEA,IMP IBA IEA,NAS IEA,ISS,ISS IEA,IBA IEA,IEA,IEA,IEA,IEA,IGI IEA,IDA IMP IEP ISS NAS IEA,IEA,IEA,NAS IEA,IMP IGI ISS,IMP ISS IEA,IEA,IDA IEA,IEP NAS IEA,IBA TAS IEA,ISS IBA IEA,IBA IEA,IEA,IEP IEA,IEA,IEA,ISS IBA,IEA,TAS IEA,IBA TAS IEA,IDA ISS NAS,ISS,IBA,IEA,IDA ISS IBA IEA,IEA,IEP ISS IEA,IEA,NAS,IEP TAS,IDA IMP,ISS,IDA IMP IGI IEP IBA,IEA,ISS,TAS IEA,IDA IBA,ISS IBA IEA,IEA,ISS,IBA IEA,HEP,IDA IBA TAS IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,656,84879,3491,63827,3766,1959,2674,4038,2,79365,6857,688,1948,6252,89932,26153,7057,4756,4916,2903,51704,5579,999,54768,7153,10882,113026,4804,2302,1995,92749,3625,8324,8609,3488,5270,92737,4826,55959,116448,3708,1295,5947,5806,23284,9508,8507,1946,6695,1958,1843,10814,84062,3400,7021,1490,10457,4852,6424,81628,5054,2861,10395,1808,11075,6383,10655,1029,1620,4129,1641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0048869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular developmental process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0009987, GO:0032502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS IBA IEA,IEA,ISS IEA,IDA IEA,IDA,IEA,ISS IEA,IDA IEA,IEA,IEA,ISS IBA IEA,IEA,ISS IBA IEA,IDA IEA,IEA,IDA ISS IBA IEA,IEP,IEA,IBA IEA,IBA IEA,IEA,ISS,IEA,IEA,IEA,IEA,IEA,IDA IEP ISS IEA,IEA,IEA,IMP,ISS NAS IEA,IMP IGI ISS IEA,IMP ISS IEA,IEA,IDA IEA,NAS IEA,ISS IEA,IBA IEA,IEA,IEP,IEA,IEA,IEA,ISS,IEA,IBA IEA,IEA,IDA ISS,IEA,IEA,IDA ISS IBA IEA,IBA IEA,IDA IEP IEA,IDA IEA,IEP TAS,IDA IEA,ISS,IDA,IEA,IEA,IDA IBA,ISS IBA IEA,ISS,IBA IEA,IDA IBA IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,656,84879,3491,10628,3766,1959,84858,2674,5654,4038,2,79365,6857,688,1948,6252,89932,4756,4916,2903,51704,999,54768,7153,10882,4804,2302,1995,9518,79784,3625,8324,8609,3488,5270,92737,55959,116448,1827,1295,7018,5947,5806,23284,8507,1946,9547,6695,1958,10814,84062,3400,7021,1490,4852,6424,81628,5054,2861,1808,11075,6383,1029,1620,1641</t>
+  </si>
+  <si>
     <t xml:space="preserve">developmental process</t>
   </si>
   <si>
+    <t xml:space="preserve">ISS IBA TAS IEA,TAS IEA,IMP ISS IEA,IDA IEA,IDA,IBA IEA,IEA,ISS TAS IEA,IDA IEA,IBA IEA,IEA,IDA ISS IBA IEA,IEA,ISS IBA IEA,IDA IEA,IEA,IDA ISS IBA TAS IEA,NAS,IEP,IEA,ISS IEA,IDA IMP IGI IBA IEA,IBA IEA,IMP IBA IEA,NAS IEA,ISS,ISS IEA,IBA IEA,IEA,IEA,IEA,IEA,IGI IEA,IDA IMP IEP ISS NAS IEA,IEA,ISS IEA,IMP IEA,IEA,ISS NAS IEA,IMP,IMP IGI ISS NAS IEA,IMP ISS IEA,IEA,IDA IEA,IEP NAS IEA,IBA TAS IEA,ISS IBA IEA,IBA IEA,IEA,IEA,IEP IEA,IEA,IEA,IEA,ISS IBA,IEA,TAS IEA,IDA IBA TAS IEA,IEA,IDA ISS NAS,ISS IEA,TAS IEA,IMP IBA,IBA,IEA,IDA ISS IBA IEA,IBA IEA,IDA IEP ISS IBA IEA,IDA TAS IEA,NAS,IEP TAS IEA,IDA IMP IEA,ISS,IDA IMP IGI IEP IBA,IEA,IMP ISS,TAS IEA,IDA IBA,ISS IBA IEA,IBA IEA,ISS,IBA IEA,HEP,IDA IBA TAS IEA,IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,656,84879,3491,10628,63827,3766,1959,84858,2674,5654,4038,2,79365,6857,688,1948,23002,6252,89932,26153,7057,4756,4916,2903,51704,5579,999,54768,7153,10882,113026,4804,2302,1995,9518,79784,92749,3625,1134,8324,8609,3488,5270,92737,4826,55959,116448,1827,3708,1295,7018,5947,5806,23284,9508,8507,1946,9547,6695,1958,1839,23286,1843,10814,84062,3400,7021,1490,10457,4852,6424,81628,5054,2861,10395,1808,11075,6383,10655,1029,1620,4129,1641,1069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0030154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell differentiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS IBA IEA,IEA,ISS IEA,IDA IEA,IDA,IEA,ISS IEA,IDA IEA,IEA,IEA,ISS IBA IEA,IEA,ISS IBA IEA,IDA IEA,IEA,IDA ISS IBA IEA,IEP,IEA,IBA IEA,IBA IEA,IEA,ISS,IEA,IEA,IEA,IEA,IEA,IDA IEP ISS IEA,IEA,IEA,ISS NAS IEA,IMP IGI ISS IEA,IMP ISS IEA,IEA,IDA IEA,NAS IEA,ISS IEA,IBA IEA,IEA,IEP,IEA,IEA,IEA,ISS,IEA,IBA IEA,IEA,IDA ISS,IEA,IEA,IDA ISS IBA IEA,IBA IEA,IDA IEP IEA,IDA IEA,IEP TAS,IDA IEA,ISS,IDA,IEA,IEA,IDA IBA,ISS IBA IEA,ISS,IBA IEA,IDA IBA IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,656,84879,3491,10628,3766,1959,84858,2674,5654,4038,2,79365,6857,688,1948,6252,89932,4756,4916,2903,51704,999,54768,7153,10882,4804,2302,1995,9518,3625,8324,8609,3488,5270,92737,55959,116448,1827,1295,7018,5947,5806,23284,8507,1946,9547,6695,1958,10814,84062,3400,7021,1490,4852,6424,81628,5054,2861,1808,11075,6383,1029,1620,1641</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0007154</t>
   </si>
   <si>
@@ -119,115 +188,325 @@
     <t xml:space="preserve">GO:0009987</t>
   </si>
   <si>
+    <t xml:space="preserve">ISS IBA IEA,IMP IBA,IBA,ISS IEA,IDA,IDA IGI IBA IEA,IMP,IEA,IEA,IDA IBA,IBA IEA,IBA TAS IEA,IEA,NAS IEA,IEA,IDA IMP IBA IEA,IDA IBA IEA,ISS IBA TAS IEA,IDA,IDA IBA TAS IEA,NAS IEA,ISS IEA,IDA IMP TAS,IEA,IDA IBA TAS IEA,ISS ISO IBA TAS NAS IEA,ISS IBA IEA,ISS IEA,ISS IBA NAS IEA,IEA,IBA,ISS IEA,IBA IEA,IDA IBA IEA,IBA IEA,IDA IMP ISS IBA TAS IEA,IMP,IDA IPI ISS IBA IEA,IMP IBA TAS IEA,IDA IMP IBA NAS IC IEA,IMP,IDA IBA NAS IEA,IEA,IEA,IBA,IDA ISS IBA IEA,IMP IBA IEA,IDA ISS NAS IEA,IBA,ISS,IEA,IBA,IBA TAS NAS IEA,IDA,IBA IEA,IDA ISS IBA IEA,TAS IEA,IMP IEA,IDA IMP IBA TAS IEA,IDA IMP IBA,IDA IMP ISS IBA IEA,IEA,ISS IBA IEA,ISS IBA IEA,IBA,IMP ISS IEA,IDA IBA IEA,IMP IC IEA,IBA TAS IEA,IDA IMP IGI ISS IBA NAS IEA,IDA IMP,IDA IBA TAS IEA,IMP IBA TAS IEA,TAS,IDA ISS IBA TAS IEA,IDA IEP,IDA ISS IBA TAS NAS IEA,IEA,IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,2537,656,84879,5865,3491,2633,10628,3766,50486,7044,2786,1959,2674,5654,4038,254263,6857,688,1948,23002,26153,7057,4756,4916,2903,729993,51704,5579,999,794,5187,113026,4804,5596,9518,79784,3625,1134,8324,8609,3488,5270,92737,4826,55959,1827,3708,79442,11170,7018,83888,23284,9508,2920,1946,9547,1958,1839,23286,1843,51617,10814,84062,10590,7021,1490,10457,4852,6424,5054,2861,10395,1808,23643,1029,9568,4129,1641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:1901700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to oxygen-containing compound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0042221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEA,IEA,IEA,IEA,IEA,ISS IBA TAS IEA,IEA,ISS,IDA TAS IEA,IEA,IDA IEA,ISS IEA,IDA,IEA,IDA,IEA,ISS IEA,ISS IEA,ISS,IMP,IDA ISS,IEA,IEA,IEA,IBA,ISS IEA,ISS IEA,TAS,IEA,ISS IEA,IEA,IMP,ISS IEA,IDA IBA IEA,IDA,IBA IEA,IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,10628,3766,1959,2,6857,1948,10516,7057,4916,2903,5579,999,5187,4804,361,9518,3625,8324,8609,3488,3708,5947,10417,2920,1946,1958,2878,51617,84062,1490,5054,2861,23643,687,1620,4129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of cell adhesion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007155, GO:0030155, GO:0048523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMP,IMP,IDA TAS,IMP,ISS IEA,IMP IEA,ISS IEA,IMP,IDA,IDA,IMP,IDA IMP,IDA,IDA,IMP ISS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,2633,7057,999,2302,8324,5270,11170,1946,6695,1843,10457,5054,10395,1029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nervous system development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS IBA TAS IEA,IMP ISS IEA,IBA IEA,IEA,ISS TAS IEA,IBA IEA,ISS IBA IEA,IBA,IDA IEA,IDA IBA IEA,IEP,IEA,ISS IEA,IBA IEA,IBA IEA,NAS IEA,ISS,IBA IEA,IEA,IEA,IEA,ISS NAS IEA,IEA,IEA,ISS,ISS IEA,IDA IEA,IEP NAS IEA,IBA TAS IEA,ISS IEA,IBA IEA,ISS IBA,TAS IEA,IBA TAS IEA,IDA ISS NAS,IEA,IDA ISS IBA IEA,IEA,ISS IEA,IEP,ISS,IEA,ISS,TAS IEA,IDA IBA,ISS IBA IEA,IBA IEA,HEP,IDA IBA TAS IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,84879,63827,3766,1959,2674,4038,79365,6857,1948,6252,89932,26153,4756,4916,2903,51704,999,54768,10882,4804,2302,1995,3625,8324,8609,5270,92737,4826,55959,116448,23284,8507,1946,6695,10814,84062,3400,7021,4852,81628,2861,10395,1808,11075,6383,1620,4129,1641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0023052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0050789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS IBA IEA,IMP IBA,IBA,IDA,IDA IGI IBA IEA,IMP,IEA,IEA,IDA IBA,IBA IEA,IBA TAS IEA,IEA,NAS IEA,IEA,IDA IMP IBA IEA,IDA IBA IEA,ISS IBA TAS IEA,IDA,IDA IBA TAS IEA,NAS IEA,ISS IEA,IDA IMP TAS,IEA,IDA IBA TAS IEA,ISS ISO IBA TAS NAS IEA,ISS IBA IEA,ISS IEA,ISS IBA NAS IEA,IEA,IBA,ISS IEA,IBA IEA,IDA IBA IEA,IBA IEA,IDA IMP ISS IBA TAS IEA,IDA IPI ISS IBA IEA,IMP IBA TAS IEA,IDA IMP IBA NAS IC IEA,IMP,IDA IBA NAS IEA,IEA,IEA,IBA,IDA ISS IBA IEA,IMP IBA IEA,IDA ISS NAS IEA,IBA,ISS,IEA,IBA,IBA TAS NAS IEA,IDA,IBA IEA,IDA ISS IBA IEA,TAS IEA,IMP IEA,IDA IMP IBA TAS IEA,IDA IMP IBA,IDA IMP ISS IBA IEA,IEA,ISS IBA IEA,ISS IBA IEA,IBA,IMP ISS IEA,IDA IBA IEA,IMP IC IEA,IBA TAS IEA,IDA IMP IGI ISS IBA NAS IEA,IDA IMP,IDA IBA TAS IEA,IMP IBA TAS IEA,TAS,IDA ISS IBA TAS IEA,IDA IEP,IDA ISS IBA TAS NAS IEA,IEA,IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,2537,656,5865,3491,2633,10628,3766,50486,7044,2786,1959,2674,5654,4038,254263,6857,688,1948,23002,26153,7057,4756,4916,2903,729993,51704,5579,999,794,5187,113026,4804,5596,9518,3625,1134,8324,8609,3488,5270,92737,4826,55959,1827,3708,79442,11170,7018,83888,23284,9508,2920,1946,9547,1958,1839,23286,1843,51617,10814,84062,10590,7021,1490,10457,4852,6424,5054,2861,10395,1808,23643,1029,9568,4129,1641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0010812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of cell-substrate adhesion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007162, GO:0010810, GO:0031589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMP,IDA TAS,IMP IEA,IMP,IDA,IDA,IDA,IDA,IMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2633,7057,8324,11170,1946,6695,5054,10395,1029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0048513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">animal organ development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS IEA,IEA,IMP ISS IEA,IDA IEA,IDA,IEA,ISS TAS IEA,IEA,IEA,IDA IEA,IEA,IEA,IEA,ISS IEA,NAS,IMP IEA,NAS,IEA,IEA,IEA,IEA,IDA IEP ISS NAS IEA,IMP,IEA,NAS IEA,IMP,IGI NAS,IMP,IEA,IEA,IEA,IBA TAS IEA,ISS IBA IEA,IEA,IEA,IEA,IBA,IEA,ISS IEA,TAS,IEA,IEA,IEP ISS IEA,IEA,IEP,IMP,IDA,ISS,IEA,HEP,IBA IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,656,84879,3491,10628,63827,1959,2674,5654,4038,2,6857,688,1948,23002,4916,2903,999,54768,113026,4804,2302,79784,92749,3625,1134,8324,8609,3488,5270,92737,4826,55959,1827,1295,5806,23284,9547,1958,1839,84062,3400,7021,1490,4852,6424,5054,10395,1808,4129,1641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0010646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cell communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007154, GO:0050794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS IEA,IMP IBA,IBA,IDA IGI,IMP,IEA,IDA IBA,IBA,TAS,IEA,IEA,IDA IMP IBA IEA,IDA IBA IEA,ISS IEA,ISS IEA,IDA IMP TAS,IEA,IDA IBA,ISS ISO IBA NAS IEA,ISS IBA IEA,ISS,ISS IEA,IEA,IBA,ISS IEA,IEA,IDA IMP ISS IBA IEA,IPI ISS IBA IEA,IMP IC,IMP,IDA IBA IEA,IEA,IBA,IDA ISS IBA IEA,IMP,IDA IEA,ISS,IDA,ISS IEA,IEA,IMP IBA,IDA IMP IBA,IDA IMP ISS IBA IEA,ISS IBA IEA,ISS IBA IEA,IBA,IMP ISS IEA,IDA,IC IEA,IEA,IDA IMP IGI ISS NAS IEA,IDA IMP,IDA IBA IEA,IMP IBA TAS IEA,IBA IEA,IDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,2537,656,3491,2633,3766,50486,7044,2786,1959,5654,4038,254263,6857,26153,7057,4756,4916,2903,729993,51704,5579,999,794,5187,4804,9518,3625,8324,8609,3488,5270,4826,55959,1827,3708,11170,9508,1946,1958,1839,23286,1843,10814,84062,10590,7021,1490,10457,4852,6424,5054,2861,10395,23643,1029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0023051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0023052, GO:0050789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0022008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neurogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007399, GO:0030154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS IBA IEA,ISS IEA,IEA,ISS IEA,IEA,ISS IBA IEA,IBA,IDA,IDA IBA,IEP,IEA,IBA IEA,IBA IEA,IEA,ISS,IEA,IEA,IEA,ISS,ISS IEA,IDA,NAS IEA,IBA IEA,ISS,IEA,IBA IEA,IDA ISS,IDA ISS IBA IEA,IEA,IEP,ISS,IEA,IEA,IDA IBA,ISS IBA IEA,IBA IEA,IDA IBA IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,84879,3766,1959,2674,4038,79365,6857,1948,6252,89932,4756,4916,2903,51704,999,10882,4804,8324,8609,5270,92737,116448,23284,8507,1946,6695,84062,3400,4852,81628,2861,1808,11075,6383,1620,1641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0051239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of multicellular organismal process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0032501, GO:0050789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMP ISS IEA,ISS IEA,IDA IEA,IMP,ISS IEA,ISS IEA,IMP ISS IEA,IEA,IBA,ISS IEA,IDA IMP IGI ISS IBA IEA,IEA,ISS ISO,IEA,ISS,ISS IEA,IEA,IMP ISS IEA,IEA,IDA ISS IEA,IEA,ISS IEA,IDA IPI ISS IEA,IGI,IMP,IEA,IDA ISS IC IEA,ISS IBA IEA,IEA,IEA,IEA,IEA,ISS IEA,IEA,IMP IBA,IEA,IEA,IDA IMP NAS IEA,IEA,IDA,IDA IMP IGI IBA TAS NAS IC,ISS IEA,IEA,ISS,IMP,IEA,ISS IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,84879,3491,2633,50486,1959,4038,254263,79365,1948,7057,4916,2903,729993,51704,5579,999,5187,4804,2302,361,9518,3625,8324,8609,3488,5270,55959,7018,5947,10417,1946,1958,1839,23286,3400,1490,10457,4852,6424,5054,23643,10655,1029,54566,1620,5730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme-linked receptor protein signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS IBA IEA,IMP,IBA,IGI,IEA,IBA,IEA,IEA,IDA IBA IEA,IDA,IEA,IDA IBA TAS IEA,ISS IEA,IEA,IDA ISS IBA TAS IEA,IDA IBA,IDA IBA IEA,ISS IBA IEA,IEA,IDA,IDA IBA IEA,IEA,IDA IMP IBA IEA,ISS IEA,IEA,ISS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,2537,656,3491,10628,7044,2674,5654,1948,7057,4756,4916,5579,4804,9518,3625,3488,55959,7018,9508,1946,1958,1839,7021,1490,6424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0010810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cell-substrate adhesion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0030155, GO:0031589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEA,IMP,IDA TAS,IMP IEA,IMP,IEA,IBA IEA,IDA,IDA,IEA,IDA,IDA,IMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3491,2633,7057,8324,11170,1295,151887,1946,6695,4852,5054,10395,1029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0009719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to endogenous stimulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0050896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEA,IBA,IGI,IEA,IBA,IEA,IEA,IEA,IEA,IDA TAS IEA,IEA,IBA IEA,ISS IEA,IDA,ISS IEA,IDA IEA,IEA,ISS IBA TAS IEA,ISS IEA,IDA ISS,ISS IBA IEA,IEA,ISS,IDA,IEA,ISS IEA,IEA,ISS IEA,ISS IEA,IEA,ISS NAS,IDA,IDA,IEA,IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,656,3491,10628,7044,1959,2674,5654,2,7057,4756,4916,5579,999,5187,4804,361,9518,3625,3488,55959,3708,11170,9508,1946,1958,51617,84062,7021,1490,6424,11075,687,5730,4129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of biological process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0008150, GO:0065007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMP IGI ISS IBA IEA,IMP IBA,IBA,IMP ISS IEA,IDA IMP IBA,IDA IGI IBA IEA,IMP IGI,IDA IEA,IBA IEA,IDA ISS IBA IEA,IBA IEA,IMP IBA TAS IEA,IDA ISS IBA IEA,IDA IBA,NAS IEA,IBA IEA,IEA,IDA IMP ISS IBA IEA,IMP ISS IBA NAS,IDA IBA IEA,IDA IEA,IDA ISS IBA IEA,IDA ISS IBA TAS IEA,IDA IBA IEA,IDA IMP ISS IBA TAS IEA,NAS IEA,IDA,IEA,ISS IEA,ISS IEA,IDA IMP IGI ISS IBA TAS IEA,IEA,IDA IBA TAS IEA,ISS ISO IBA TAS NAS IEA,ISS IBA IEA,ISS IEA,IDA IMP ISS IBA NAS IEA,IDA IMP IEA,IBA,IDA IMP ISS IBA TAS IEA,IMP IBA,IDA IMP ISS IEA,IEA,IBA IEA,IDA IMP IGI ISS IBA IEA,IDA ISS IBA IEA,IEA,IBA IEA,IDA IMP ISS IBA TAS IEA,IEA,IBA,IDA ISS IBA,IDA IPI ISS IBA IEA,IBA TAS IEA,IMP IBA TAS IEA,IDA IMP IGI IBA NAS IC IEA,IDA IMP IBA TAS IEA,IDA IGI IBA NAS IEA,IDA IMP ISS IBA NAS IC IEA,IEA,IBA IEA,IBA,IDA ISS IBA IEA,IBA IEA,IMP IBA IEA,IDA ISS IBA TAS NAS IEA,IBA,IMP ISS,IDA IMP ISS IBA,IEA,IBA IEA,IDA IGI IEA,IEA,IDA IEA,IEA,IBA,IBA TAS NAS IEA,IDA,IBA IEA,IDA IEA,IDA ISS IBA NAS IEA,TAS IEA,IDA NAS,IDA IMP IGI ISS IBA IEA,IDA IMP IBA TAS IEA,IDA IMP IBA TAS IEA,IDA IMP ISS IBA IEA,IEA,ISS IBA TAS IEA,ISS IBA IEA,IDA IBA IEA,IBA,IDA IMP ISS IBA IEA,IDA IBA IEA,IDA IMP IGI TAS NAS IC IEA,ISS IBA TAS IEA,IDA IMP IGI ISS IBA NAS IEA,ISS NAS IEA,IDA IMP IGI IBA TAS NAS IC IEA,IDA ISS IBA TAS IEA,IDA IMP IBA TAS IEA,TAS IEA,IDA ISS IBA TAS IEA,IDA IBA IEA,ISS IEA,IBA IEA,IDA IMP IEP ISS IBA IEA,IMP IBA TAS,IDA ISS IBA TAS NAS IEA,IMP,IDA IBA IEA,IMP IEA,ISS IEA,IEA,IEA,IMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,2537,656,84879,5865,3491,2633,10628,3766,50486,7044,2786,1959,84858,2674,5654,10418,4038,79026,254263,2,79365,6857,688,1948,23002,6252,89932,10516,26153,7057,4756,4916,2903,729993,51704,5579,999,794,5187,201161,7153,10882,113026,4804,2302,361,5596,9518,79784,92749,57628,3625,56475,1134,8324,8609,3488,5270,92737,3769,4826,55959,116448,1827,3708,79442,64147,11170,1295,151887,7018,5947,5806,10417,83888,23284,9508,2920,8507,1946,9547,6695,1958,1839,23286,1843,51617,10814,84062,3400,10590,7021,1490,10457,4852,6424,81628,5054,2861,10395,1808,23643,11075,6383,10655,1029,687,9568,54566,1620,8021,5730,4129,1641,1069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0010647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of cell communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007154, GO:0010646, GO:0048522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS IEA,IBA,IGI,IDA IBA,IBA,ISS IEA,IDA IMP,IEA,IDA IBA,ISS ISO IBA IEA,ISS,ISS IEA,IBA,IEA,IDA IMP IBA IEA,IPI IBA IEA,IC,IEA,IEA,IBA,IDA IBA IEA,IEA,ISS,IDA,IMP IBA,IDA,ISS IEA,IBA,IDA,IC IEA,IEA,IGI,IDA IBA IEA,IBA IEA,IDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,656,3491,50486,7044,6857,7057,4756,4916,2903,51704,5579,794,4804,9518,3625,8324,3488,5270,4826,55959,3708,11170,9508,1839,23286,84062,10590,1490,10457,4852,6424,2861,23643,1029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0033993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to lipid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0010033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEA,IEA,IEA,IEA,TAS IEA,IEA,ISS IEA,IEA,IEA,ISS,ISS,IEA,IEA,IBA,IEA,TAS,IEA,IMP,IDA IBA IEA,IDA,IBA IEA,IEA,IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,10628,2,1948,7057,4916,5187,361,3625,8324,11170,5947,10417,2920,1946,2878,1490,5054,23643,687,1620,5730,4129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0023056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0023051, GO:0023052, GO:0048518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to stimulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMP ISS IBA IEA,IMP IBA TAS IEA,IBA,ISS IEA,IDA IGI IBA IEA,IDA IMP IEP IBA IEA,IDA IEA,IEA,IDA IBA,IBA IEA,IBA TAS IEA,IEA,NAS IEA,IEA,IDA IMP IBA IEA,NAS,IDA IBA IEA,IDA IEA,ISS IBA TAS IEA,IEA,IDA IBA IEA,NAS IEA,IEA,ISS,ISS IEA,IDA IMP IEP ISS TAS NAS IEA,IBA IEA,IDA IBA TAS IEA,IDA ISS ISO IBA TAS IEA,IBA IEA,ISS IEA,ISS IBA NAS IEA,IDA IEA,ISS IBA TAS IEA,IDA,IBA IEA,IDA IBA IEA,ISS IEA,IDA IEA,IBA IEA,IDA IMP ISS IBA TAS IEA,IDA IEP ISS IBA TAS IEA,IBA TAS IEA,IDA IMP ISS IBA NAS IC IEA,IMP ISS IEA,IDA ISS IBA NAS IEA,IDA ISS IC IEA,IEA,IDA ISS IBA IEA,IMP IBA IEA,IDA ISS NAS IEA,IBA,ISS,IEA,IGI IBA IEA,IEA,IDA IBA TAS IEA,IEA,IBA TAS NAS IEA,IDA,IDA IBA TAS IEA,IDA ISS IBA IEA,IBA TAS IEA,IDA IMP ISS IEA,IDA IMP IBA TAS IEA,TAS IEA,IDA IMP IBA,IDA IMP ISS IBA IEA,IEA,IEA,ISS IEA,ISS IEA,IDA IBA TAS IEA,IMP NAS IC IEA,ISS IBA TAS IEA,IDA IMP IGI ISS IBA NAS IEA,IBA,IDA IMP IGI IBA TAS NAS IC,IDA ISS IBA TAS IEA,IMP IBA TAS IEA,TAS IEA,IDA ISS IBA TAS NAS IEA,IDA,IDA IMP IEP,IDA,IDA TAS IEA,IDA,IBA IEA,IEA,IEA,IEA,IDA IBA IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,2537,656,84879,3491,2633,10628,3766,50486,7044,2786,1959,2674,5654,4038,79026,254263,2,6857,688,1948,23002,89932,10516,26153,7057,4756,4916,2903,729993,51704,5579,999,5187,7153,113026,4804,2302,361,5596,9518,3625,1134,8324,8609,3488,5270,92737,55959,1827,3708,79442,11170,151887,7018,5947,5806,10417,23284,9508,2920,1946,9547,1958,1839,2878,23286,1843,51617,10814,84062,7021,1490,10457,4852,6424,81628,5054,2861,10395,1808,23643,11075,1029,687,9568,54566,1620,5730,4129,1641,1069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0009605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to external stimulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMP ISS IBA IEA,IMP IEA,ISS IEA,IEA,IDA IBA IEA,IEA,IEA,IEA,IDA IEA,IDA IBA IEA,IEA,ISS IEA,IDA ISS IEA,IBA IEA,IDA,IEA,ISS,IEA,ISS IBA TAS IEA,IEA,IDA,IDA IEA,ISS IEA,ISS IEA,IDA ISS IC IEA,ISS,IEA,IBA IEA,IEA,IDA IBA IEA,IEA,IDA IBA TAS IEA,IBA IEA,IBA TAS IEA,IMP,IMP,NAS,ISS IEA,IDA IMP IGI IBA TAS NAS IC,IEA,IDA ISS IBA NAS IEA,IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,2537,84879,3491,2633,10628,1959,5654,2,1948,89932,26153,7057,4756,4916,2903,51704,999,5187,4804,361,9518,3625,8609,5270,11170,151887,7018,5947,5806,10417,2920,1946,9547,1839,1843,10457,4852,5054,1808,23643,4129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chemotaxis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0042221, GO:0042330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS IBA IEA,IEA,IEA,IDA IBA,IEA,IDA ISS,IBA IEA,IDA,IEA,ISS IEA,IBA TAS IEA,IBA IEA,TAS IEA,IMP,IMP,NAS,IMP,IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,3491,1959,1948,89932,7057,4756,4916,4804,8609,2920,1946,9547,1839,1843,10457,5054,1808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0042330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taxis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0009605, GO:0040011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0048699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generation of neurons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS IBA IEA,ISS IEA,IEA,IEA,ISS IBA IEA,IDA,IDA IBA,IEP,IEA,IBA IEA,IBA IEA,ISS,IEA,IEA,IEA,ISS,ISS IEA,NAS,IBA IEA,ISS,IEA,IBA IEA,IDA ISS,IDA ISS IBA IEA,IEA,IEP,ISS,IEA,IEA,IDA IBA,ISS IBA IEA,IBA IEA,IDA IBA IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,84879,1959,2674,4038,6857,1948,6252,89932,4756,4916,51704,999,10882,4804,8324,8609,92737,116448,23284,8507,1946,6695,84062,3400,4852,81628,2861,1808,11075,6383,1620,1641</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0040011</t>
   </si>
   <si>
     <t xml:space="preserve">locomotion</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0048869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular developmental process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0009987, GO:0032502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0023052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0007162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of cell adhesion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0007155, GO:0030155, GO:0048523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">movement of cell or subcellular component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0030154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell differentiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0010646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of cell communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0007154, GO:0050794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0023051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0023052, GO:0050789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0010812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of cell-substrate adhesion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0007162, GO:0010810, GO:0031589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0048513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">animal organ development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0051239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of multicellular organismal process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0032501, GO:0050789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0032879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of localization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0050789, GO:0051179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0007167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enzyme-linked receptor protein signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0007166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0010810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of cell-substrate adhesion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0030155, GO:0031589</t>
+    <t xml:space="preserve">IGI ISS IBA IEA,IDA IEA,IEA,IDA IBA,IEA,IDA IMP ISS,IBA IEA,IDA,IEA,IMP,IMP IEA,ISS IEA,IDA IGI,NAS,IEA,ISS,IMP,IEA,IBA TAS IEA,IBA IEA,TAS IEA,IMP IEA,IMP,IDA NAS,IDA IMP,IEA,IDA IMP,IEA,IMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,3491,1959,1948,89932,7057,4756,4916,2903,999,4804,8609,3488,5270,1827,64147,11170,7018,2920,1946,9547,1839,1843,10457,5054,2861,10395,1808,54566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell adhesion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMP,IBA IEA,IMP,IEA,IBA IEA,IDA IEA,IEA,TAS IEA,IDA TAS NAS IEA,IBA NAS IEA,IDA IMP IBA NAS IEA,ISS IEA,IEA,IMP IEA,ISS IEA,IMP,IEA,IBA IEA,IBA IEA,IDA IBA,IDA IBA IEA,IDA NAS,IMP,IBA IEA,IDA IMP IBA IEA,IEA,IDA,IDA ISS,IMP ISS,IMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,3491,2633,63827,10418,1948,89932,10516,7057,4756,999,2302,361,8324,5270,11170,1295,151887,10417,23284,1946,6695,1843,1490,10457,4852,5054,10395,1029,54566</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0030155</t>
@@ -239,34 +518,109 @@
     <t xml:space="preserve">GO:0007155, GO:0050794</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0042221</t>
+    <t xml:space="preserve">IMP,IEA,IMP,IEA,IDA TAS,IMP,ISS IEA,IMP IEA,ISS IEA,IMP,IEA,IBA IEA,IDA IBA IEA,IDA,IMP,IDA IMP,IEA,IDA,IDA,IMP ISS,IMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,3491,2633,1948,7057,999,2302,8324,5270,11170,1295,151887,1946,6695,1843,10457,4852,5054,10395,1029,54566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0065007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biological regulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMP IGI ISS IBA IEA,IMP IBA,IBA,IMP ISS IEA,IDA IMP IBA,IDA IGI IBA IEA,IMP IGI,IDA IEA,IBA IEA,IDA ISS IBA IEA,IBA IEA,IMP IBA TAS IEA,IDA ISS IBA IEA,IDA IBA,NAS IEA,IBA IEA,IEA,IDA IMP ISS IBA IEA,IMP ISS IBA NAS,IDA IBA IEA,IDA IEA,IDA ISS IBA IEA,IDA ISS IBA TAS IEA,IDA IBA IEA,IDA IMP ISS IBA TAS IEA,NAS IEA,IDA,IEA,ISS IEA,ISS IEA,IDA IMP IGI ISS IBA TAS IEA,IEA,IDA IBA TAS IEA,ISS ISO IBA TAS NAS IEA,ISS IBA IEA,ISS IEA,IDA IMP ISS IBA NAS IEA,IDA IMP IEA,IBA,IDA IMP ISS IBA TAS IEA,IMP IBA,IDA IMP ISS IEA,IEA,IBA IEA,IDA IMP IGI ISS IBA IEA,IDA ISS IBA IEA,IEP ISS TAS IEA,IBA IEA,IDA IMP ISS IBA TAS IEA,IMP IEA,IBA,IDA ISS IBA,IDA IPI ISS IBA IEA,IBA TAS IEA,IMP IBA TAS IEA,IDA IMP IGI IBA NAS IC IEA,IDA IMP IBA TAS IEA,IDA IGI IBA NAS IEA,IDA IMP ISS IBA NAS IC IEA,IEA,IBA IEA,IBA,IDA ISS IBA IEA,IBA IEA,IMP IBA IEA,IDA ISS IBA TAS NAS IEA,IBA,IMP ISS,IDA IMP ISS IBA,IEA,IBA IEA,IDA IGI TAS IEA,IEA,IDA IEA,IEA,IBA,IBA TAS NAS IEA,IDA,IBA IEA,IDA IEA,IDA ISS IBA NAS IEA,TAS IEA,IDA NAS,IDA IMP IGI ISS IBA IEA,IDA IMP IBA TAS IEA,IDA IMP IBA TAS IEA,IDA IMP ISS IBA IEA,IEA,ISS IBA TAS IEA,ISS IBA IEA,IDA IBA IEA,IBA,IDA IMP ISS IBA IEA,IDA IBA IEA,IDA IMP IGI TAS NAS IC IEA,ISS IBA TAS IEA,IDA IMP IGI ISS IBA NAS IEA,ISS NAS IEA,IDA IMP IGI IBA TAS NAS IC IEA,IDA ISS IBA TAS IEA,IDA IMP IBA TAS IEA,TAS IEA,IDA ISS IBA TAS IEA,IDA IBA IEA,ISS IEA,NAS,IBA IEA,IDA IMP IEP ISS IBA IEA,IMP IBA TAS,IDA ISS IBA TAS NAS IEA,IMP,IDA IBA IEA,IMP IEA,ISS IEA,IEA,IEA,IMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,2537,656,84879,5865,3491,2633,10628,3766,50486,7044,2786,1959,84858,2674,5654,10418,4038,79026,254263,2,79365,6857,688,1948,23002,6252,89932,10516,26153,7057,4756,4916,2903,729993,51704,5579,999,794,5187,201161,7153,10882,113026,4804,2302,361,5596,9518,79784,92749,57628,3625,56475,1134,8324,8609,3488,5270,92737,3769,4826,55959,116448,1827,3708,79442,64147,11170,1295,151887,7018,5947,5806,10417,83888,23284,9508,2920,8507,1946,9547,6695,1958,1839,23286,1843,51617,10814,84062,3400,10590,7021,1490,10457,4852,6424,81628,5054,2861,10395,1808,23643,11075,6383,6674,10655,1029,687,9568,54566,1620,8021,5730,4129,1641,1069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0048468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0030154, GO:0048856, GO:0048869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS IBA IEA,ISS IEA,IEA,ISS IEA,IEA,ISS IEA,IBA,IDA,IEA,IDA IBA,IEA,IBA IEA,IBA IEA,IEA,IEA,IEA,IEA,IEA,IEP ISS IEA,IEA,IEA,ISS IEA,IDA,IEA,ISS IEA,IEA,IEA,IEA,IEA,IEA,IEA,IBA IEA,IDA,IEA,IDA ISS IBA IEA,IEA,IEP,ISS,IEA,IEA,IDA IBA,ISS IBA IEA,ISS,IEA,IBA IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,84879,3766,1959,2674,4038,79365,6857,688,1948,89932,4756,4916,999,54768,7153,10882,4804,2302,3625,8324,8609,5270,92737,55959,116448,1827,7018,5947,5806,8507,1946,6695,1958,84062,3400,4852,81628,2861,1808,11075,6383,1029,1620,1641</t>
   </si>
   <si>
     <t xml:space="preserve">response to chemical</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0050896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0070887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular response to chemical stimulus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0042221, GO:0051716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0050789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of biological process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0008150, GO:0065007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to stimulus</t>
+    <t xml:space="preserve">ISS IBA IEA,IEA,IDA IEP IBA,IEA,IEA,IEA,IEA,ISS IBA TAS IEA,IEA,IDA IBA IEA,IEA,ISS,IDA IEP ISS TAS IEA,IBA IEA,IDA IEA,IDA IEA,ISS IEA,IDA IEA,ISS IEA,IDA IEA,IDA IEA,ISS IEA,ISS IEA,ISS,IMP ISS IEA,IDA ISS IEA,IEA,ISS,IGI,IEA,IEA,IDA IBA TAS IEA,ISS IBA IEA,TAS IEA,IDA IMP ISS IEA,IMP,TAS IEA,IMP,IEA,ISS IEA,IEA,IEA,NAS,ISS IEA,NAS,IMP,ISS IEA,IEA,IDA IBA IEA,IDA,IBA IEA,IEA,IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,3491,2633,10628,3766,1959,2,6857,688,1948,89932,10516,7057,4756,4916,2903,5579,999,5187,4804,361,9518,3625,8324,8609,3488,3708,11170,7018,5947,10417,2920,1946,9547,1958,1839,2878,1843,51617,84062,7021,1490,10457,4852,6424,5054,2861,1808,23643,687,1620,5730,4129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0099536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">synaptic signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS IEA,IDA,IEA,IEA,IEA,ISS IBA TAS IEA,ISS ISO IBA TAS NAS IEA,ISS IBA IEA,IEA,IEA,IBA,IEA,IMP IBA IEA,IEA,IEA,ISS,ISS IBA IEA,ISS IBA IEA,IBA,TAS IEA,TAS NAS IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,5865,3766,1959,254263,6857,2903,729993,5579,999,794,4804,1134,5270,3708,11170,10814,84062,10590,4852,9568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0031589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell-substrate adhesion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEA,IMP,TAS,IDA TAS,IMP IEA,IMP,IEA,IBA IEA,IDA,IDA,IEA,IEA,IDA,IDA ISS,IMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3491,2633,10516,7057,8324,11170,1295,151887,1946,6695,1490,4852,5054,10395,1029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0030182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuron differentiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0030154, GO:0048699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS IBA IEA,ISS IEA,IEA,IEA,ISS IEA,IDA,IDA IBA,IEP,IEA,IBA IEA,IBA IEA,ISS,IEA,IEA,IEA,ISS,ISS IEA,IBA IEA,IEA,IBA IEA,IDA ISS,IDA ISS IBA IEA,IEA,IEP,ISS,IEA,IEA,IDA IBA,ISS IBA IEA,IBA IEA,IBA IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,84879,1959,2674,4038,6857,1948,6252,89932,4756,4916,51704,999,10882,4804,8324,8609,116448,8507,1946,6695,84062,3400,4852,81628,2861,1808,11075,6383,1620,1641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0050804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modulation of chemical synaptic transmission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007268, GO:0099177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS IEA,IEA,IEA,IEA,ISS IEA,ISS ISO IBA NAS IEA,ISS IBA IEA,IEA,IEA,IBA,IEA,IEA,ISS,ISS IBA IEA,ISS IBA IEA,IBA,IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,3766,1959,254263,6857,2903,729993,5579,999,794,4804,5270,11170,10814,84062,10590,4852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0099177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of trans-synaptic signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0010646, GO:0023051, GO:0099537</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0050794</t>
@@ -278,52 +632,10 @@
     <t xml:space="preserve">GO:0009987, GO:0050789</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0007155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell adhesion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:1901700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to oxygen-containing compound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0007399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nervous system development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0071310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular response to organic substance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0010033, GO:0070887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0010033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to organic substance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0031589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell-substrate adhesion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0051674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">localization of cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0009987, GO:0051179</t>
+    <t xml:space="preserve">IMP IGI ISS IBA IEA,IMP IBA,IBA,IMP ISS IEA,IDA IMP IBA,IDA IGI IBA IEA,IMP IGI,IDA IEA,IBA IEA,IDA IBA,IBA IEA,IMP IBA TAS IEA,IDA ISS IBA IEA,IDA IBA,NAS IEA,IBA IEA,IDA IMP ISS IBA IEA,IMP ISS IBA NAS,IDA IBA IEA,IDA ISS IBA IEA,IDA ISS IBA TAS IEA,IDA IBA IEA,IDA IMP ISS IBA IEA,NAS IEA,ISS IEA,ISS IEA,IDA IMP ISS TAS,IEA,IDA IBA TAS IEA,ISS ISO IBA TAS NAS IEA,ISS IBA IEA,ISS IEA,IDA IMP ISS IBA NAS IEA,IDA IMP IEA,IBA,ISS IBA IEA,IMP IBA,IDA IMP IEA,IEA,IBA IEA,IDA IMP IGI IBA IEA,IDA ISS IBA IEA,IEA,IBA IEA,IDA IMP ISS IBA TAS IEA,IBA,IDA ISS IBA,IDA IPI ISS IBA IEA,IBA TAS IEA,IBA TAS IEA,IDA IMP IGI IBA NAS IC IEA,IDA IMP IBA TAS IEA,IDA IGI IBA NAS IEA,IDA ISS NAS IEA,IEA,IBA IEA,IBA,IDA ISS IBA IEA,IBA IEA,IMP IBA IEA,IDA ISS IBA TAS NAS IEA,IBA,IMP ISS,IDA IMP ISS IBA,IEA,IBA IEA,IDA IGI IEA,IEA,IEA,IBA TAS NAS IEA,IDA,IBA IEA,IDA IEA,IDA ISS IBA NAS IEA,TAS IEA,IDA NAS,IDA IMP IGI ISS IBA IEA,IDA IMP IBA TAS IEA,IDA IMP IBA TAS IEA,IDA IMP ISS IBA IEA,IEA,ISS IBA TAS IEA,ISS IBA IEA,IDA IBA IEA,IBA,IDA IMP ISS IBA IEA,IDA IBA IEA,IDA IMP IGI TAS IC IEA,IBA TAS IEA,IDA IMP IGI ISS IBA NAS IEA,ISS NAS IEA,IDA IMP,IDA ISS IBA TAS IEA,IDA IMP IBA TAS IEA,TAS IEA,IDA ISS IBA TAS IEA,IDA IBA IEA,ISS IEA,IBA IEA,IDA IMP IEP ISS IBA IEA,IMP IBA TAS,IDA TAS IEA,IMP,IDA IBA IEA,IMP IEA,IEA,IEA,IEA,IMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,2537,656,84879,5865,3491,2633,10628,3766,50486,7044,2786,1959,84858,2674,5654,4038,79026,254263,79365,6857,688,1948,23002,10516,26153,7057,4756,4916,2903,729993,51704,5579,999,794,5187,201161,7153,10882,113026,4804,2302,361,5596,9518,92749,57628,3625,56475,1134,8324,8609,3488,5270,92737,3769,4826,55959,116448,1827,3708,79442,64147,11170,1295,151887,7018,5947,5806,23284,9508,2920,8507,1946,9547,6695,1958,1839,23286,1843,51617,10814,84062,3400,10590,7021,1490,10457,4852,6424,81628,5054,2861,10395,1808,23643,11075,6383,10655,1029,687,9568,54566,1620,8021,5730,4129,1641,1069</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0048870</t>
@@ -332,175 +644,154 @@
     <t xml:space="preserve">cell motility</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0006928, GO:0040011, GO:0051674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0033993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to lipid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0042330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taxis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0009605, GO:0040011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chemotaxis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0042221, GO:0042330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0010647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of cell communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0007154, GO:0010646, GO:0048522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0023056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0023051, GO:0023052, GO:0048518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0009605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to external stimulus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0051179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">localization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0022008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neurogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0007399, GO:0030154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0050793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of developmental process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0032502, GO:0050789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0051716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular response to stimulus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0009987, GO:0050896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0016477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell migration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0050804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modulation of chemical synaptic transmission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0007268, GO:0099177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0099177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of trans-synaptic signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0010646, GO:0023051, GO:0099537</t>
+    <t xml:space="preserve">IGI IEA,IDA IEA,IEA,IDA,IDA IMP ISS,IBA,IDA IEA,IMP,IDA,IMP,ISS IEA,IMP IBA,IDA IGI,NAS,NAS,ISS,IMP,IEA,ISS,IBA IEA,IEA,ISS,IMP IEA,IDA IBA IEA,IMP,IEA,IDA,IDA IMP,IDA IMP,IBA,IMP,IDA IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,3491,2674,1948,7057,4756,4916,999,201161,4804,2302,92749,3488,5270,92737,64147,11170,7018,23284,2920,9547,6695,1839,23286,1843,1490,10457,5054,10395,6383,54566,1641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chemical synaptic transmission</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0098916</t>
   </si>
   <si>
+    <t xml:space="preserve">ISS IEA,IDA,IEA,IEA,IEA,ISS IBA TAS IEA,ISS ISO IBA TAS NAS IEA,ISS IBA IEA,IEA,IEA,IBA,IEA,IMP IBA IEA,IEA,ISS,ISS IBA IEA,ISS IBA IEA,IBA,TAS IEA,TAS NAS IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,5865,3766,1959,254263,6857,2903,729993,5579,999,794,4804,1134,5270,11170,10814,84062,10590,4852,9568</t>
+  </si>
+  <si>
     <t xml:space="preserve">anterograde trans-synaptic signaling</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0099537</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0007268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chemical synaptic transmission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0009719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to endogenous stimulus</t>
+    <t xml:space="preserve">GO:0051049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006810, GO:0032879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS IEA,IDA IMP IBA,IBA IEA,IMP,IDA IBA IEA,ISS IBA TAS IEA,IEA,IDA,ISS ISO,IBA IEA,IDA ISS IEA,IDA,ISS IEA,ISS IBA,IPI ISS IEA,IMP,IEA,IBA IEA,IBA,IEA,IDA IGI,IEA,ISS IEA,TAS,IBA TAS IEA,ISS IBA IEA,IMP,IEA,IDA,IDA,IMP,IMP,IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,5865,3766,79026,254263,6857,1948,7057,2903,729993,5579,999,5187,57628,3625,8609,5270,3769,4826,3708,7018,5806,1946,23286,10814,84062,7021,4852,6424,5054,1029,8021,4129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:1901701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular response to oxygen-containing compound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0070887, GO:1901700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEA,IEA,ISS IBA IEA,IEA,ISS,IEA,ISS IEA,IDA,IDA,IEA,ISS IEA,ISS IEA,ISS,IMP,IDA,IEA,IEA,IBA,ISS IEA,ISS,IEA,ISS IEA,IMP,ISS IEA,IBA IEA,IDA,IBA IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,3766,6857,1948,10516,4916,5579,999,4804,361,9518,3625,8324,8609,3488,3708,10417,2920,1946,1958,51617,84062,5054,2861,23643,687,1620</t>
   </si>
   <si>
     <t xml:space="preserve">trans-synaptic signaling</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0099536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0120036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plasma membrane bounded cell projection organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0030030</t>
+    <t xml:space="preserve">GO:0007417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">central nervous system development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007399, GO:0048731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS IBA IEA,IMP ISS IEA,IBA IEA,IEA,ISS TAS IEA,IEA,IEA,NAS,IEA,IEA,IEA,ISS NAS IEA,IEA,IDA IEA,IEP,IBA TAS IEA,IEA,IBA,ISS,IEA,IEA,IEP,ISS,IEA,HEP,TAS IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,84879,63827,3766,1959,6857,4916,2903,999,54768,4804,2302,3625,5270,92737,4826,116448,23284,6695,84062,3400,4852,10395,1808,4129,1641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0009653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anatomical structure morphogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0032502, GO:0048856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS IBA IEA,ISS IEA,IDA IEA,ISS IEA,IEA,ISS IEA,IDA,IEA,IDA IBA TAS IEA,NAS,IEA,IDA IMP IGI IBA IEA,IBA IEA,ISS IEA,IEA,IEA,IGI IEA,IEP ISS IEA,IEA,IMP IEA,IMP NAS,ISS IEA,IEA,IEA,IEA,IEA,IEP IEA,IDA IBA IEA,IEA,IBA,ISS IEA,IEA,IEP ISS IEA,IEA,NAS,IMP,ISS,IDA IMP IGI IEP IBA,IMP ISS,IEA,ISS IBA IEA,IEA,IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,84879,3491,1959,5654,4038,6857,688,1948,23002,89932,7057,4756,5579,999,113026,4804,2302,9518,79784,8324,8609,3488,5270,55959,3708,1295,1946,1839,1843,84062,3400,7021,1490,10457,6424,81628,5054,10395,1808,6383,10655,1641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0120025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plasma membrane bounded cell projection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0042995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS IBA IEA,IDA IBA IEA,ISS,ISS IEA,ISS IBA IEA,IEA,ISS IEA,ISS IBA IEA,ISS IBA IEA,IEA,IDA,IEA,IBA,IBA,IEA,ISS IBA IEA,IEA,IDA,ISS IBA IEA,IBA,IEA,IEA,ISS IEA,IEA,ISS IBA IEA,ISS,IBA,IDA IEA,ISS IEA,IDA ISS IBA IEA,IEA,ISS IBA IEA,IDA,ISS,IDA IEA,ISS IEA,IBA IEA,IDA ISS IBA IEA,IBA,IDA,IEA,ISS,IDA,IEA,IDA IBA IEA,IEA,IBA,IBA IEA,IDA IBA IEA,IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,7802,127003,3766,257177,2674,4038,254263,6857,1948,23002,6252,4756,4916,2903,729993,5579,999,54768,794,10882,4804,361,79784,92749,129881,1134,92737,64147,11170,132204,23284,134121,6695,23286,51617,10814,84062,10590,80129,4852,81628,10395,1808,11075,9568,1620,83543,1641,1069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell projection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0110165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS IBA IEA,IDA IBA IEA,ISS IEA,ISS IEA,ISS IBA IEA,IEA,ISS IEA,ISS IBA IEA,ISS IBA IEA,IEA,IDA IEA,IEA,IBA,IBA,IEA,ISS IBA IEA,IEA,IDA,ISS IBA IEA,IBA,IEA,IEA,ISS IEA,IEA,ISS IBA IEA,ISS IEA,IBA,IDA IEA,ISS IEA,IDA ISS IBA IEA,IEA,ISS IBA IEA,IDA,ISS,IDA IEA,ISS IEA,IBA IEA,IDA ISS IBA IEA,IBA,IDA,IEA,ISS,IDA,IEA,IDA IBA IEA,IEA,IBA,IBA IEA,IDA IBA IEA,IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0030312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">external encapsulating structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0071944, GO:0110165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDA IBA,IBA IEA,HDA,HDA IBA IEA,HDA ISS IBA,HDA,IBA,IDA HDA ISS TAS,IDA HDA ISS IBA TAS,HDA,IDA HDA,IBA,HDA IBA TAS IEA,IBA IEA,IEA,IBA IEA,IBA TAS NAS,IEA,HDA IBA TAS IEA,IDA HDA NAS,HDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3491,63827,7044,5654,10418,2,89932,10516,7057,9518,5270,116135,1295,151887,5806,10417,9508,1946,1490,5054,6383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0031012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extracellular matrix</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0071944</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:CC</t>
-  </si>
-  <si>
     <t xml:space="preserve">cell periphery</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0110165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0030312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">external encapsulating structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0071944, GO:0110165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0031012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extracellular matrix</t>
+    <t xml:space="preserve">IDA ISS IBA TAS IEA,TAS,IDA ISS IBA RCA TAS IEA,IBA IEA,HDA IBA,IEA,IBA IEA,IBA TAS IEA,ISS IEA,HDA,IBA TAS IEA,IBA TAS IEA,IDA HDA IBA IEA,HDA ISS IBA,IDA IBA TAS IEA,ISS IBA IEA,IDA IPI NAS,ISS IEA,HDA,IBA TAS IEA,IDA IBA TAS IEA,IDA,IBA IEA,IDA HDA ISS TAS,IDA HDA ISS IBA TAS,IDA IBA TAS NAS IEA,IBA TAS IEA,IDA ISS ISO IBA TAS NAS IEA,ISS IBA IEA,IBA IEA,IDA TAS IEA,IDA IBA TAS IEA,TAS IEA,IDA IBA TAS IEA,TAS IEA,IDA ISS IBA TAS IEA,HDA,IPI ISS IBA IEA,IEA,IDA IBA TAS NAS IEA,IDA ISS IBA TAS NAS IEA,IDA IBA TAS IEA,IDA HDA,IDA IEA,IBA,ISS IBA IEA,IBA,IBA,IDA IEA,HDA IBA TAS IEA,IBA IEA,IDA IGI IBA IEA,IEA,IBA IEA,IEA,IDA IBA IEA,IBA TAS NAS,IDA ISS IBA TAS IEA,ISS IBA TAS IEA,IDA IEA,ISS IBA IEA,HDA IBA TAS IEA,IBA TAS IEA,IDA HDA TAS NAS,IDA IBA TAS IEA,IDA,IDA,IDA TAS,HDA TAS,IDA,IDA IPI IBA TAS IEA,IDA,IBA IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,2537,84879,5865,3491,2633,63827,3766,257177,7044,2786,2674,5654,10418,203859,4038,79026,254263,2,6857,1948,23002,89932,10516,7057,4756,4916,2903,729993,51704,5579,999,113026,4804,11322,361,9518,57628,3625,2995,1134,8324,5270,92737,3769,55959,3708,116135,11170,1295,151887,7018,5806,10417,201780,23284,9508,1946,1839,23286,84062,1490,10457,5054,2861,10395,1808,23643,6383,687,9568,54566,83543</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0062023</t>
@@ -509,16 +800,34 @@
     <t xml:space="preserve">collagen-containing extracellular matrix</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0120025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plasma membrane bounded cell projection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0042995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell projection</t>
+    <t xml:space="preserve">HDA,IEA,HDA,HDA IBA IEA,HDA ISS,HDA,IDA HDA,HDA ISS IBA TAS,HDA,IDA HDA,HDA TAS IEA,IBA IEA,TAS,IEA,HDA,IDA HDA NAS,HDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3491,63827,7044,5654,10418,2,10516,7057,9518,5270,1295,151887,9508,1946,1490,5054,6383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0043005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuron projection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISS IBA IEA,IEA,ISS IEA,ISS IBA IEA,ISS IBA IEA,IEA,IEA,IBA,IBA,IEA,ISS IBA IEA,IEA,IBA,IEA,IEA,IEA,IBA,IDA IEA,ISS IBA IEA,IEA,ISS IBA IEA,ISS,ISS IEA,IBA IEA,IDA ISS IBA IEA,IBA,IEA,ISS,IEA,IDA IBA IEA,IEA,IBA,IDA IEA,IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,2674,4038,254263,6857,1948,6252,4756,4916,2903,729993,5579,794,10882,4804,79784,1134,92737,11170,132204,23284,6695,51617,10814,84062,10590,4852,81628,1808,11075,9568,1620,1641,1069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0005576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extracellular region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAS,IBA IEA,HDA,IEA,IEA,TAS IEA,IBA TAS IEA,HDA,HDA IEA,HDA TAS IEA,HDA IEA,IDA HDA,HDA IBA TAS NAS IEA,IEA,HDA TAS IEA,IDA HDA TAS IEA,IDA HDA IBA,HDA,HDA TAS,IBA IEA,TAS,HDA,IEA,IDA HDA IBA TAS IEA,HDA,IBA TAS IEA,IDA IBA TAS NAS IC IEA,IDA HDA IBA TAS IEA,IMP NAS,IBA,IBA TAS IEA,IEA,IDA HDA IBA TAS NAS IEA,IDA IBA TAS IEA,HDA IEA,IEA,IDA HDA TAS IEA,IBA TAS IEA,IEA,IDA IEA,IDA ISS IBA TAS IEA,IDA HDA IBA TAS IEA,IEA,TAS IEA,ISS IBA TAS IEA,IDA IBA IEA,IDA IBA TAS IEA,HDA,TAS IEA,HDA,IDA HDA IBA IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,656,5865,3491,2633,63827,7044,2786,2674,5654,10418,79026,2,89932,10516,7057,51704,5579,999,10882,4804,11322,361,9518,79784,3625,3488,5270,55959,116135,1295,151887,7018,5806,10417,83888,9508,2920,9547,6695,1839,2878,10590,1490,4852,6424,5054,1808,23643,83543,5730</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0005886</t>
@@ -530,16 +839,10 @@
     <t xml:space="preserve">GO:0016020, GO:0071944</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0043005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuron projection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0005576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extracellular region</t>
+    <t xml:space="preserve">IDA ISS IBA TAS IEA,TAS,IDA ISS IBA RCA TAS IEA,IBA IEA,IEA,IBA TAS IEA,ISS IEA,IBA TAS IEA,IBA TAS IEA,IDA IEA,IDA IBA TAS IEA,ISS IBA IEA,IDA IPI NAS,ISS IEA,IBA TAS IEA,IDA IBA TAS IEA,IDA,IEA,IDA,IDA IBA TAS NAS IEA,IBA TAS IEA,IDA ISS ISO IBA TAS NAS IEA,ISS IBA IEA,IBA IEA,IDA TAS IEA,IDA IBA TAS IEA,TAS IEA,IDA IBA TAS IEA,TAS IEA,IDA ISS IBA TAS IEA,IPI ISS IBA IEA,IDA TAS NAS IEA,IDA ISS IBA TAS NAS IEA,IDA IBA TAS IEA,IDA,IDA IEA,IBA,ISS IBA IEA,IBA,IDA IEA,IDA IGI IBA IEA,IEA,IDA IBA IEA,IDA ISS IBA TAS IEA,ISS IBA TAS IEA,IDA IEA,ISS IBA IEA,TAS,IBA TAS IEA,TAS,IDA IBA TAS IEA,IDA,IDA,IDA TAS,TAS,IDA,IDA IPI IBA TAS IEA,IDA,IBA IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,2537,84879,5865,2633,3766,257177,2786,2674,5654,203859,4038,79026,254263,6857,1948,23002,89932,7057,4756,4916,2903,729993,51704,5579,999,113026,4804,11322,361,57628,2995,1134,8324,5270,92737,3769,55959,3708,11170,7018,201780,23284,1946,1839,23286,84062,1490,10457,5054,2861,10395,1808,23643,6383,687,9568,54566,83543</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0009986</t>
@@ -548,13 +851,10 @@
     <t xml:space="preserve">cell surface</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0045202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">synapse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0030054</t>
+    <t xml:space="preserve">IEA,IBA IEA,IDA ISS IEA,IDA IEA,IBA,ISS IEA,ISS,ISS IBA IEA,IDA,IDA IEA,IDA,IDA IBA IEA,IDA IGI,IDA IBA,IDA NAS,IDA,IDA IEA,IBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,2674,4038,7057,4756,2903,51704,4804,361,1134,5270,55959,7018,1946,1839,6424,2861,6383</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0005102</t>
@@ -569,6 +869,12 @@
     <t xml:space="preserve">GO:0005515</t>
   </si>
   <si>
+    <t xml:space="preserve">IEA,IBA IEA,IBA IEA,IBA IEA,TAS IEA,ISS IEA,IMP,IDA,IPI IBA TAS IEA,ISS TAS,IMP,ISS,IEA,IBA TAS IEA,IBA TAS IEA,IPI,IPI IEA,IBA IEA,IPI TAS,IBA TAS IEA,IPI IBA NAS IEA,TAS IEA,IDA IBA TAS IEA,IBA IEA,IMP IBA NAS IEA,IBA TAS IEA,IPI,IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048,656,3491,7044,2674,4038,2,6857,1948,10516,7057,51704,10882,9518,3625,8324,5270,92737,7018,2920,1946,9547,1839,1490,10457,4852,5054,23643</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0005539</t>
   </si>
   <si>
@@ -578,16 +884,106 @@
     <t xml:space="preserve">GO:0097367</t>
   </si>
   <si>
+    <t xml:space="preserve">IBA IEA,IEA,IDA IEA,IDA IEA,IBA,IEA,IEA,IMP IBA IEA,IBA IEA,IDA IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3491,63827,7057,5270,55959,151887,9508,1839,1490,10457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0048018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">receptor ligand activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0005102, GO:0030546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBA IEA,IBA IEA,IBA TAS IEA,IBA TAS IEA,IBA TAS IEA,IEA,TAS IEA,IDA IBA IEA,IEA,IMP NAS,IBA TAS IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">656,7044,9518,3625,2920,1946,9547,1839,1490,10457,4852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0019838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">growth factor binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEA,IEA,IDA IEA,IDA ISS TAS IEA,IBA TAS,ISS IBA IEA,IPI IBA IEA,IBA IEA,TAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3491,5654,2,7057,4916,4804,3488,83888,1490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0030546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signaling receptor activator activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0030545, GO:0140677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBA IEA,IBA IEA,IBA TAS IEA,IBA TAS IEA,IBA TAS IEA,NAS IEA,TAS IEA,IDA IBA IEA,IEA,IMP NAS,IBA TAS IEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0091063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cerebellum; synaptic glomeruli - core[High]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPA:0091062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced,Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63827,6857,2903,57687,1827,132204,9568,4129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG:04350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGF-beta signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG:00000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG,KEGG,KEGG,KEGG,KEGG,KEGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">656,7044,7057,4756,3625,3400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG:04060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytokine-cytokine receptor interaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">656,4804,9518,3625,2920,9547</t>
+  </si>
+  <si>
     <t xml:space="preserve">KEGG:04726</t>
   </si>
   <si>
-    <t xml:space="preserve">KEGG</t>
-  </si>
-  <si>
     <t xml:space="preserve">Serotonergic synapse</t>
   </si>
   <si>
-    <t xml:space="preserve">KEGG:00000</t>
+    <t xml:space="preserve">KEGG,KEGG,KEGG,KEGG,KEGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2786,5579,3708,1843,4129</t>
   </si>
 </sst>
 </file>
@@ -962,2953 +1358,3511 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000000156441984045077</v>
+        <v>0.000000069466985075667</v>
       </c>
       <c r="D2" t="n">
-        <v>4068</v>
+        <v>4480</v>
       </c>
       <c r="E2" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F2" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>0.633587786259542</v>
+        <v>0.627586206896552</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0204031465093412</v>
+        <v>0.0203125</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L2" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M2" t="n">
-        <v>8803</v>
+        <v>8031</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00000150425921669093</v>
+        <v>0.000000123780540435461</v>
       </c>
       <c r="D3" t="n">
-        <v>3563</v>
+        <v>1065</v>
       </c>
       <c r="E3" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F3" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G3" t="n">
-        <v>0.572519083969466</v>
+        <v>0.275862068965517</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0210496772382823</v>
+        <v>0.0375586854460094</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L3" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M3" t="n">
-        <v>15146</v>
+        <v>2864</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00000247441321598372</v>
+        <v>0.000000582198409516647</v>
       </c>
       <c r="D4" t="n">
-        <v>2754</v>
+        <v>3896</v>
       </c>
       <c r="E4" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F4" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="G4" t="n">
-        <v>0.488549618320611</v>
+        <v>0.56551724137931</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0232389251997095</v>
+        <v>0.021047227926078</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L4" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M4" t="n">
-        <v>15031</v>
+        <v>13840</v>
       </c>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="O4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00000762132398798753</v>
+        <v>0.000000939041777756685</v>
       </c>
       <c r="D5" t="n">
-        <v>979</v>
+        <v>2737</v>
       </c>
       <c r="E5" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F5" t="n">
+        <v>66</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.455172413793103</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0241139934234563</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M5" t="n">
+        <v>13728</v>
+      </c>
+      <c r="N5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.267175572519084</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0357507660878447</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3158</v>
-      </c>
-      <c r="N5" t="s">
-        <v>27</v>
+      <c r="O5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00000775705135111628</v>
+        <v>0.00000159372343607666</v>
       </c>
       <c r="D6" t="n">
-        <v>3049</v>
+        <v>3200</v>
       </c>
       <c r="E6" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F6" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G6" t="n">
-        <v>0.511450381679389</v>
+        <v>0.496551724137931</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0219744178419154</v>
+        <v>0.0225</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="L6" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M6" t="n">
-        <v>3166</v>
+        <v>2871</v>
       </c>
       <c r="N6" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="O6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0000122003791175854</v>
+        <v>0.00000277492020557761</v>
       </c>
       <c r="D7" t="n">
-        <v>3873</v>
+        <v>2802</v>
       </c>
       <c r="E7" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F7" t="n">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G7" t="n">
-        <v>0.587786259541985</v>
+        <v>0.455172413793103</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0198812290214304</v>
+        <v>0.0235546038543897</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L7" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M7" t="n">
-        <v>8804</v>
+        <v>13852</v>
       </c>
       <c r="N7" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="O7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0000153119628177405</v>
+        <v>0.00000322899379665091</v>
       </c>
       <c r="D8" t="n">
-        <v>3644</v>
+        <v>4259</v>
       </c>
       <c r="E8" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F8" t="n">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G8" t="n">
-        <v>0.564885496183206</v>
+        <v>0.586206896551724</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0203073545554336</v>
+        <v>0.0199577365578774</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="L8" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M8" t="n">
-        <v>3054</v>
+        <v>8032</v>
       </c>
       <c r="N8" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="O8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0000164084929606436</v>
+        <v>0.00000572642680809069</v>
       </c>
       <c r="D9" t="n">
-        <v>1115</v>
+        <v>2776</v>
       </c>
       <c r="E9" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F9" t="n">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G9" t="n">
-        <v>0.282442748091603</v>
+        <v>0.448275862068966</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0331838565022422</v>
+        <v>0.0234149855907781</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="L9" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M9" t="n">
-        <v>11458</v>
+        <v>7050</v>
       </c>
       <c r="N9" t="s">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0000184076036656562</v>
+        <v>0.0000317860712180085</v>
       </c>
       <c r="D10" t="n">
-        <v>2516</v>
+        <v>3946</v>
       </c>
       <c r="E10" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F10" t="n">
+        <v>79</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.544827586206897</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0200202736948809</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2781</v>
+      </c>
+      <c r="N10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" t="s">
         <v>59</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.450381679389313</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.023449920508744</v>
-      </c>
-      <c r="I10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M10" t="n">
-        <v>15158</v>
-      </c>
-      <c r="N10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0000258232037740759</v>
+        <v>0.0000628293518962671</v>
       </c>
       <c r="D11" t="n">
-        <v>3601</v>
+        <v>1138</v>
       </c>
       <c r="E11" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F11" t="n">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="G11" t="n">
-        <v>0.557251908396947</v>
+        <v>0.255172413793103</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0202721466259372</v>
+        <v>0.0325131810193322</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="L11" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M11" t="n">
-        <v>7648</v>
+        <v>22661</v>
       </c>
       <c r="N11" t="s">
-        <v>18</v>
+        <v>62</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0000346314982924706</v>
+        <v>0.0000684912010804786</v>
       </c>
       <c r="D12" t="n">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E12" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F12" t="n">
         <v>15</v>
       </c>
       <c r="G12" t="n">
-        <v>0.114503816793893</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0852272727272727</v>
+        <v>0.0828729281767956</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="L12" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M12" t="n">
-        <v>3062</v>
+        <v>2789</v>
       </c>
       <c r="N12" t="s">
-        <v>44</v>
+        <v>67</v>
+      </c>
+      <c r="O12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0000379269737622558</v>
+        <v>0.000074557495240584</v>
       </c>
       <c r="D13" t="n">
-        <v>1320</v>
+        <v>1855</v>
       </c>
       <c r="E13" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F13" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13" t="n">
-        <v>0.305343511450382</v>
+        <v>0.337931034482759</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.0264150943396226</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="L13" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M13" t="n">
-        <v>2866</v>
+        <v>2969</v>
       </c>
       <c r="N13" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0000402692695107712</v>
+        <v>0.0000938254745777213</v>
       </c>
       <c r="D14" t="n">
-        <v>2493</v>
+        <v>3870</v>
       </c>
       <c r="E14" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F14" t="n">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="G14" t="n">
-        <v>0.442748091603053</v>
+        <v>0.531034482758621</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0232651423987164</v>
+        <v>0.0198966408268734</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="L14" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M14" t="n">
-        <v>7716</v>
+        <v>7002</v>
       </c>
       <c r="N14" t="s">
-        <v>37</v>
+        <v>76</v>
+      </c>
+      <c r="O14" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0000442233276399152</v>
+        <v>0.00011022569543025</v>
       </c>
       <c r="D15" t="n">
-        <v>2219</v>
+        <v>48</v>
       </c>
       <c r="E15" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F15" t="n">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="G15" t="n">
-        <v>0.412213740458015</v>
+        <v>0.0620689655172414</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0243352861649392</v>
+        <v>0.1875</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K15" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L15" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M15" t="n">
-        <v>4791</v>
+        <v>4528</v>
       </c>
       <c r="N15" t="s">
-        <v>51</v>
+        <v>81</v>
+      </c>
+      <c r="O15" t="s">
+        <v>82</v>
+      </c>
+      <c r="P15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0000532940559078145</v>
+        <v>0.000159576734647753</v>
       </c>
       <c r="D16" t="n">
-        <v>2230</v>
+        <v>2026</v>
       </c>
       <c r="E16" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F16" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G16" t="n">
-        <v>0.412213740458015</v>
+        <v>0.351724137931034</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0242152466367713</v>
+        <v>0.025172754195459</v>
       </c>
       <c r="I16" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K16" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="L16" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M16" t="n">
-        <v>7647</v>
+        <v>13536</v>
       </c>
       <c r="N16" t="s">
-        <v>54</v>
+        <v>28</v>
+      </c>
+      <c r="O16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0000930391080656178</v>
+        <v>0.000342790592690907</v>
       </c>
       <c r="D17" t="n">
-        <v>48</v>
+        <v>2408</v>
       </c>
       <c r="E17" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0687022900763359</v>
+        <v>0.386206896551724</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1875</v>
+        <v>0.0232558139534884</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="L17" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M17" t="n">
-        <v>4946</v>
+        <v>4388</v>
       </c>
       <c r="N17" t="s">
-        <v>57</v>
+        <v>90</v>
+      </c>
+      <c r="O17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0000961716917657208</v>
+        <v>0.000348128606863157</v>
       </c>
       <c r="D18" t="n">
-        <v>2128</v>
+        <v>2409</v>
       </c>
       <c r="E18" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F18" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G18" t="n">
-        <v>0.396946564885496</v>
+        <v>0.386206896551724</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0244360902255639</v>
+        <v>0.0232461602324616</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="L18" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M18" t="n">
-        <v>14835</v>
+        <v>7001</v>
       </c>
       <c r="N18" t="s">
-        <v>19</v>
+        <v>95</v>
+      </c>
+      <c r="O18" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.000312492645932306</v>
+        <v>0.000753919037229776</v>
       </c>
       <c r="D19" t="n">
-        <v>1604</v>
+        <v>1247</v>
       </c>
       <c r="E19" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F19" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G19" t="n">
-        <v>0.32824427480916</v>
+        <v>0.255172413793103</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0268079800498753</v>
+        <v>0.0296712109061748</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="J19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="L19" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M19" t="n">
-        <v>15697</v>
+        <v>6923</v>
       </c>
       <c r="N19" t="s">
-        <v>62</v>
+        <v>98</v>
+      </c>
+      <c r="O19" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.000346153970764521</v>
+        <v>0.000791819176129648</v>
       </c>
       <c r="D20" t="n">
-        <v>1737</v>
+        <v>1860</v>
       </c>
       <c r="E20" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F20" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G20" t="n">
-        <v>0.343511450381679</v>
+        <v>0.324137931034483</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0259067357512953</v>
+        <v>0.0252688172043011</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="J20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K20" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="L20" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M20" t="n">
-        <v>9081</v>
+        <v>14358</v>
       </c>
       <c r="N20" t="s">
-        <v>65</v>
+        <v>103</v>
+      </c>
+      <c r="O20" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.000389593508404677</v>
+        <v>0.00105534314914468</v>
       </c>
       <c r="D21" t="n">
-        <v>612</v>
+        <v>676</v>
       </c>
       <c r="E21" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>0.190839694656489</v>
+        <v>0.179310344827586</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0408496732026144</v>
+        <v>0.0384615384615385</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="J21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K21" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="L21" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M21" t="n">
-        <v>3067</v>
+        <v>2794</v>
       </c>
       <c r="N21" t="s">
-        <v>68</v>
+        <v>108</v>
+      </c>
+      <c r="O21" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.000525534701784741</v>
+        <v>0.00106617732530067</v>
       </c>
       <c r="D22" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E22" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F22" t="n">
         <v>13</v>
       </c>
       <c r="G22" t="n">
-        <v>0.099236641221374</v>
+        <v>0.0896551724137931</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0849673202614379</v>
+        <v>0.0817610062893082</v>
       </c>
       <c r="I22" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K22" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="L22" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M22" t="n">
-        <v>4944</v>
+        <v>4526</v>
       </c>
       <c r="N22" t="s">
-        <v>71</v>
+        <v>113</v>
+      </c>
+      <c r="O22" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0.000635260021512127</v>
+        <v>0.00126954135385989</v>
       </c>
       <c r="D23" t="n">
-        <v>446</v>
+        <v>1157</v>
       </c>
       <c r="E23" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F23" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G23" t="n">
-        <v>0.16030534351145</v>
+        <v>0.241379310344828</v>
       </c>
       <c r="H23" t="n">
-        <v>0.047085201793722</v>
+        <v>0.0302506482281763</v>
       </c>
       <c r="I23" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="J23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K23" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="L23" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M23" t="n">
-        <v>7717</v>
+        <v>3694</v>
       </c>
       <c r="N23" t="s">
-        <v>74</v>
+        <v>118</v>
+      </c>
+      <c r="O23" t="s">
+        <v>119</v>
+      </c>
+      <c r="P23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0.000888857878960643</v>
+        <v>0.0014231414683455</v>
       </c>
       <c r="D24" t="n">
-        <v>2407</v>
+        <v>7684</v>
       </c>
       <c r="E24" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F24" t="n">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="G24" t="n">
-        <v>0.412213740458015</v>
+        <v>0.8</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0224345658496053</v>
+        <v>0.015096304008329</v>
       </c>
       <c r="I24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K24" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="L24" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M24" t="n">
-        <v>11621</v>
+        <v>14004</v>
       </c>
       <c r="N24" t="s">
-        <v>77</v>
+        <v>122</v>
+      </c>
+      <c r="O24" t="s">
+        <v>123</v>
+      </c>
+      <c r="P24" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.000919831736539131</v>
+        <v>0.00157758162008685</v>
       </c>
       <c r="D25" t="n">
-        <v>1858</v>
+        <v>1167</v>
       </c>
       <c r="E25" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F25" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G25" t="n">
-        <v>0.351145038167939</v>
+        <v>0.241379310344828</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0247578040904198</v>
+        <v>0.0299914310197087</v>
       </c>
       <c r="I25" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="J25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K25" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="L25" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M25" t="n">
-        <v>19115</v>
+        <v>4389</v>
       </c>
       <c r="N25" t="s">
-        <v>80</v>
+        <v>127</v>
+      </c>
+      <c r="O25" t="s">
+        <v>128</v>
+      </c>
+      <c r="P25" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0011326764716296</v>
+        <v>0.00168663446486415</v>
       </c>
       <c r="D26" t="n">
-        <v>7016</v>
+        <v>550</v>
       </c>
       <c r="E26" t="n">
+        <v>145</v>
+      </c>
+      <c r="F26" t="n">
+        <v>23</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.158620689655172</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0418181818181818</v>
+      </c>
+      <c r="I26" t="s">
+        <v>130</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" t="s">
         <v>131</v>
       </c>
-      <c r="F26" t="n">
-        <v>106</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.809160305343511</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.0151083238312429</v>
-      </c>
-      <c r="I26" t="s">
-        <v>81</v>
-      </c>
-      <c r="J26" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" t="s">
-        <v>82</v>
-      </c>
       <c r="L26" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M26" t="n">
-        <v>15321</v>
+        <v>8812</v>
       </c>
       <c r="N26" t="s">
-        <v>83</v>
+        <v>132</v>
+      </c>
+      <c r="O26" t="s">
+        <v>133</v>
+      </c>
+      <c r="P26" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00139588806997498</v>
+        <v>0.00171949028599355</v>
       </c>
       <c r="D27" t="n">
-        <v>4956</v>
+        <v>1171</v>
       </c>
       <c r="E27" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F27" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="G27" t="n">
-        <v>0.648854961832061</v>
+        <v>0.241379310344828</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0171509281678773</v>
+        <v>0.0298889837745517</v>
       </c>
       <c r="I27" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="J27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K27" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="L27" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M27" t="n">
-        <v>15410</v>
+        <v>7003</v>
       </c>
       <c r="N27" t="s">
-        <v>18</v>
+        <v>137</v>
+      </c>
+      <c r="O27" t="s">
+        <v>128</v>
+      </c>
+      <c r="P27" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00175981868978784</v>
+        <v>0.00280251179089068</v>
       </c>
       <c r="D28" t="n">
-        <v>6737</v>
+        <v>5429</v>
       </c>
       <c r="E28" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F28" t="n">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G28" t="n">
-        <v>0.786259541984733</v>
+        <v>0.63448275862069</v>
       </c>
       <c r="H28" t="n">
-        <v>0.015288704170996</v>
+        <v>0.0169460305765334</v>
       </c>
       <c r="I28" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="J28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K28" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="L28" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M28" t="n">
-        <v>15325</v>
+        <v>14092</v>
       </c>
       <c r="N28" t="s">
-        <v>87</v>
+        <v>20</v>
+      </c>
+      <c r="O28" t="s">
+        <v>139</v>
+      </c>
+      <c r="P28" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00205578638105695</v>
+        <v>0.00284069087511114</v>
       </c>
       <c r="D29" t="n">
-        <v>872</v>
+        <v>1616</v>
       </c>
       <c r="E29" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F29" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G29" t="n">
-        <v>0.221374045801527</v>
+        <v>0.289655172413793</v>
       </c>
       <c r="H29" t="n">
-        <v>0.033256880733945</v>
+        <v>0.025990099009901</v>
       </c>
       <c r="I29" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="J29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K29" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="L29" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M29" t="n">
-        <v>3055</v>
+        <v>3610</v>
       </c>
       <c r="N29" t="s">
-        <v>34</v>
+        <v>118</v>
+      </c>
+      <c r="O29" t="s">
+        <v>143</v>
+      </c>
+      <c r="P29" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B30" t="b">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0.00214130172659305</v>
+        <v>0.00323740225609497</v>
       </c>
       <c r="D30" t="n">
-        <v>983</v>
+        <v>353</v>
       </c>
       <c r="E30" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F30" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G30" t="n">
-        <v>0.236641221374046</v>
+        <v>0.124137931034483</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0315361139369278</v>
+        <v>0.0509915014164306</v>
       </c>
       <c r="I30" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="J30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K30" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="L30" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M30" t="n">
-        <v>24966</v>
+        <v>2631</v>
       </c>
       <c r="N30" t="s">
-        <v>75</v>
+        <v>147</v>
+      </c>
+      <c r="O30" t="s">
+        <v>148</v>
+      </c>
+      <c r="P30" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00301193424000999</v>
+        <v>0.00323740225609497</v>
       </c>
       <c r="D31" t="n">
-        <v>1665</v>
+        <v>353</v>
       </c>
       <c r="E31" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F31" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G31" t="n">
-        <v>0.320610687022901</v>
+        <v>0.124137931034483</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0252252252252252</v>
+        <v>0.0509915014164306</v>
       </c>
       <c r="I31" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="J31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K31" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="L31" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M31" t="n">
-        <v>3276</v>
+        <v>10669</v>
       </c>
       <c r="N31" t="s">
-        <v>22</v>
+        <v>152</v>
+      </c>
+      <c r="O31" t="s">
+        <v>148</v>
+      </c>
+      <c r="P31" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0.00302865849900291</v>
+        <v>0.00324097729474781</v>
       </c>
       <c r="D32" t="n">
-        <v>1474</v>
+        <v>1087</v>
       </c>
       <c r="E32" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F32" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G32" t="n">
-        <v>0.297709923664122</v>
+        <v>0.227586206896552</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0264586160108548</v>
+        <v>0.0303587856485741</v>
       </c>
       <c r="I32" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="J32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K32" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="L32" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M32" t="n">
-        <v>19341</v>
+        <v>13696</v>
       </c>
       <c r="N32" t="s">
         <v>96</v>
       </c>
+      <c r="O32" t="s">
+        <v>155</v>
+      </c>
+      <c r="P32" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00312924704241932</v>
+        <v>0.00350820640572549</v>
       </c>
       <c r="D33" t="n">
-        <v>1865</v>
+        <v>872</v>
       </c>
       <c r="E33" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F33" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G33" t="n">
-        <v>0.343511450381679</v>
+        <v>0.2</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0241286863270777</v>
+        <v>0.033256880733945</v>
       </c>
       <c r="I33" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="J33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K33" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="L33" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M33" t="n">
-        <v>4307</v>
+        <v>10464</v>
       </c>
       <c r="N33" t="s">
-        <v>75</v>
+        <v>20</v>
+      </c>
+      <c r="O33" t="s">
+        <v>159</v>
+      </c>
+      <c r="P33" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B34" t="b">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00410090452609058</v>
+        <v>0.00441105961399323</v>
       </c>
       <c r="D34" t="n">
-        <v>250</v>
+        <v>935</v>
       </c>
       <c r="E34" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F34" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G34" t="n">
-        <v>0.114503816793893</v>
+        <v>0.206896551724138</v>
       </c>
       <c r="H34" t="n">
-        <v>0.06</v>
+        <v>0.0320855614973262</v>
       </c>
       <c r="I34" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="J34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K34" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="L34" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M34" t="n">
-        <v>8387</v>
+        <v>2782</v>
       </c>
       <c r="N34" t="s">
-        <v>88</v>
+        <v>57</v>
+      </c>
+      <c r="O34" t="s">
+        <v>163</v>
+      </c>
+      <c r="P34" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B35" t="b">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0.00425358977911328</v>
+        <v>0.00541355554100336</v>
       </c>
       <c r="D35" t="n">
-        <v>1013</v>
+        <v>494</v>
       </c>
       <c r="E35" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F35" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G35" t="n">
-        <v>0.236641221374046</v>
+        <v>0.144827586206897</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0306021717670286</v>
+        <v>0.0425101214574899</v>
       </c>
       <c r="I35" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="J35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K35" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="L35" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M35" t="n">
-        <v>16030</v>
+        <v>7051</v>
       </c>
       <c r="N35" t="s">
-        <v>103</v>
+        <v>167</v>
+      </c>
+      <c r="O35" t="s">
+        <v>168</v>
+      </c>
+      <c r="P35" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B36" t="b">
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0.00425358977911328</v>
+        <v>0.00551587743774937</v>
       </c>
       <c r="D36" t="n">
-        <v>1013</v>
+        <v>7928</v>
       </c>
       <c r="E36" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F36" t="n">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="G36" t="n">
-        <v>0.236641221374046</v>
+        <v>0.806896551724138</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0306021717670286</v>
+        <v>0.0147578203834511</v>
       </c>
       <c r="I36" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="J36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K36" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="L36" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M36" t="n">
-        <v>15159</v>
+        <v>16811</v>
       </c>
       <c r="N36" t="s">
-        <v>106</v>
+        <v>20</v>
+      </c>
+      <c r="O36" t="s">
+        <v>172</v>
+      </c>
+      <c r="P36" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B37" t="b">
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0.00469893379431229</v>
+        <v>0.00615464832765087</v>
       </c>
       <c r="D37" t="n">
-        <v>501</v>
+        <v>1854</v>
       </c>
       <c r="E37" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F37" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="G37" t="n">
-        <v>0.16030534351145</v>
+        <v>0.310344827586207</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0419161676646707</v>
+        <v>0.0242718446601942</v>
       </c>
       <c r="I37" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="J37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K37" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="L37" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M37" t="n">
-        <v>9631</v>
+        <v>13507</v>
       </c>
       <c r="N37" t="s">
-        <v>97</v>
+        <v>176</v>
+      </c>
+      <c r="O37" t="s">
+        <v>177</v>
+      </c>
+      <c r="P37" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B38" t="b">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0.00470049689739285</v>
+        <v>0.00619198671995817</v>
       </c>
       <c r="D38" t="n">
-        <v>329</v>
+        <v>2396</v>
       </c>
       <c r="E38" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F38" t="n">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="G38" t="n">
-        <v>0.129770992366412</v>
+        <v>0.36551724137931</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0516717325227964</v>
+        <v>0.0221202003338898</v>
       </c>
       <c r="I38" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="J38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K38" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="L38" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M38" t="n">
-        <v>11671</v>
+        <v>10621</v>
       </c>
       <c r="N38" t="s">
-        <v>111</v>
+        <v>118</v>
+      </c>
+      <c r="O38" t="s">
+        <v>180</v>
+      </c>
+      <c r="P38" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0.00470049689739285</v>
+        <v>0.00709191339907002</v>
       </c>
       <c r="D39" t="n">
-        <v>329</v>
+        <v>502</v>
       </c>
       <c r="E39" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F39" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G39" t="n">
-        <v>0.129770992366412</v>
+        <v>0.144827586206897</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0516717325227964</v>
+        <v>0.0418326693227092</v>
       </c>
       <c r="I39" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="J39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K39" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="L39" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M39" t="n">
-        <v>2873</v>
+        <v>20177</v>
       </c>
       <c r="N39" t="s">
-        <v>114</v>
+        <v>23</v>
+      </c>
+      <c r="O39" t="s">
+        <v>184</v>
+      </c>
+      <c r="P39" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B40" t="b">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0.00666324352242309</v>
+        <v>0.00897641763585682</v>
       </c>
       <c r="D40" t="n">
-        <v>1091</v>
+        <v>260</v>
       </c>
       <c r="E40" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F40" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G40" t="n">
-        <v>0.244274809160305</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0293308890925756</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="I40" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="J40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K40" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="L40" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M40" t="n">
-        <v>4792</v>
+        <v>7637</v>
       </c>
       <c r="N40" t="s">
-        <v>117</v>
+        <v>161</v>
+      </c>
+      <c r="O40" t="s">
+        <v>188</v>
+      </c>
+      <c r="P40" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B41" t="b">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0.00755897082894043</v>
+        <v>0.0105764275747699</v>
       </c>
       <c r="D41" t="n">
-        <v>1097</v>
+        <v>1029</v>
       </c>
       <c r="E41" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F41" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41" t="n">
-        <v>0.244274809160305</v>
+        <v>0.213793103448276</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0291704649042844</v>
+        <v>0.0301263362487852</v>
       </c>
       <c r="I41" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="J41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K41" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="L41" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M41" t="n">
-        <v>7652</v>
+        <v>7062</v>
       </c>
       <c r="N41" t="s">
-        <v>120</v>
+        <v>192</v>
+      </c>
+      <c r="O41" t="s">
+        <v>193</v>
+      </c>
+      <c r="P41" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B42" t="b">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0.00819432816251853</v>
+        <v>0.0115820318726443</v>
       </c>
       <c r="D42" t="n">
-        <v>1466</v>
+        <v>343</v>
       </c>
       <c r="E42" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F42" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G42" t="n">
-        <v>0.290076335877863</v>
+        <v>0.117241379310345</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0259208731241473</v>
+        <v>0.0495626822157434</v>
       </c>
       <c r="I42" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="J42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K42" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="L42" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M42" t="n">
-        <v>3977</v>
+        <v>14016</v>
       </c>
       <c r="N42" t="s">
-        <v>77</v>
+        <v>197</v>
+      </c>
+      <c r="O42" t="s">
+        <v>198</v>
+      </c>
+      <c r="P42" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B43" t="b">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0.00830205275711483</v>
+        <v>0.0120704905269376</v>
       </c>
       <c r="D43" t="n">
-        <v>3983</v>
+        <v>344</v>
       </c>
       <c r="E43" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F43" t="n">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="G43" t="n">
-        <v>0.549618320610687</v>
+        <v>0.117241379310345</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0180768265126789</v>
+        <v>0.0494186046511628</v>
       </c>
       <c r="I43" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="J43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K43" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="L43" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M43" t="n">
-        <v>15648</v>
+        <v>20147</v>
       </c>
       <c r="N43" t="s">
-        <v>18</v>
+        <v>202</v>
+      </c>
+      <c r="O43" t="s">
+        <v>198</v>
+      </c>
+      <c r="P43" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B44" t="b">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0114266837166798</v>
+        <v>0.0153922464897066</v>
       </c>
       <c r="D44" t="n">
-        <v>1117</v>
+        <v>7210</v>
       </c>
       <c r="E44" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F44" t="n">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="G44" t="n">
-        <v>0.244274809160305</v>
+        <v>0.751724137931034</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0286481647269472</v>
+        <v>0.0151178918169209</v>
       </c>
       <c r="I44" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c r="J44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K44" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="L44" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M44" t="n">
-        <v>7544</v>
+        <v>14008</v>
       </c>
       <c r="N44" t="s">
-        <v>127</v>
+        <v>205</v>
+      </c>
+      <c r="O44" t="s">
+        <v>206</v>
+      </c>
+      <c r="P44" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B45" t="b">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0152747845713706</v>
+        <v>0.0157717297228739</v>
       </c>
       <c r="D45" t="n">
-        <v>1566</v>
+        <v>1105</v>
       </c>
       <c r="E45" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F45" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G45" t="n">
-        <v>0.297709923664122</v>
+        <v>0.220689655172414</v>
       </c>
       <c r="H45" t="n">
-        <v>0.024904214559387</v>
+        <v>0.0289592760180995</v>
       </c>
       <c r="I45" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="J45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K45" t="s">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="L45" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M45" t="n">
-        <v>15324</v>
+        <v>13853</v>
       </c>
       <c r="N45" t="s">
-        <v>130</v>
+        <v>57</v>
+      </c>
+      <c r="O45" t="s">
+        <v>210</v>
+      </c>
+      <c r="P45" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B46" t="b">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0152825541120859</v>
+        <v>0.0159774275357794</v>
       </c>
       <c r="D46" t="n">
-        <v>4294</v>
+        <v>481</v>
       </c>
       <c r="E46" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F46" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="G46" t="n">
-        <v>0.572519083969466</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0174662319515603</v>
+        <v>0.0415800415800416</v>
       </c>
       <c r="I46" t="s">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="J46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K46" t="s">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="L46" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M46" t="n">
-        <v>16064</v>
+        <v>2865</v>
       </c>
       <c r="N46" t="s">
-        <v>133</v>
+        <v>214</v>
+      </c>
+      <c r="O46" t="s">
+        <v>215</v>
+      </c>
+      <c r="P46" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B47" t="b">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0248198500827246</v>
+        <v>0.0159774275357794</v>
       </c>
       <c r="D47" t="n">
-        <v>923</v>
+        <v>481</v>
       </c>
       <c r="E47" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F47" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G47" t="n">
-        <v>0.213740458015267</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0303358613217768</v>
+        <v>0.0415800415800416</v>
       </c>
       <c r="I47" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="J47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K47" t="s">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="L47" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M47" t="n">
-        <v>5816</v>
+        <v>20010</v>
       </c>
       <c r="N47" t="s">
-        <v>104</v>
+        <v>218</v>
+      </c>
+      <c r="O47" t="s">
+        <v>215</v>
+      </c>
+      <c r="P47" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B48" t="b">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0256249349915934</v>
+        <v>0.0174030314541875</v>
       </c>
       <c r="D48" t="n">
-        <v>288</v>
+        <v>1168</v>
       </c>
       <c r="E48" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F48" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G48" t="n">
-        <v>0.114503816793893</v>
+        <v>0.227586206896552</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0520833333333333</v>
+        <v>0.0282534246575342</v>
       </c>
       <c r="I48" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="J48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K48" t="s">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c r="L48" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M48" t="n">
-        <v>15333</v>
+        <v>14219</v>
       </c>
       <c r="N48" t="s">
-        <v>138</v>
+        <v>221</v>
+      </c>
+      <c r="O48" t="s">
+        <v>222</v>
+      </c>
+      <c r="P48" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B49" t="b">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0267814861108798</v>
+        <v>0.0179813688991453</v>
       </c>
       <c r="D49" t="n">
-        <v>289</v>
+        <v>833</v>
       </c>
       <c r="E49" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F49" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G49" t="n">
-        <v>0.114503816793893</v>
+        <v>0.186206896551724</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0519031141868512</v>
+        <v>0.0324129651860744</v>
       </c>
       <c r="I49" t="s">
-        <v>139</v>
+        <v>224</v>
       </c>
       <c r="J49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K49" t="s">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="L49" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M49" t="n">
-        <v>22301</v>
+        <v>22662</v>
       </c>
       <c r="N49" t="s">
-        <v>141</v>
+        <v>226</v>
+      </c>
+      <c r="O49" t="s">
+        <v>227</v>
+      </c>
+      <c r="P49" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B50" t="b">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0289792444245609</v>
+        <v>0.0188325225110082</v>
       </c>
       <c r="D50" t="n">
-        <v>418</v>
+        <v>486</v>
       </c>
       <c r="E50" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F50" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G50" t="n">
-        <v>0.137404580152672</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0430622009569378</v>
+        <v>0.0411522633744856</v>
       </c>
       <c r="I50" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="J50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K50" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="L50" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M50" t="n">
-        <v>22162</v>
+        <v>20178</v>
       </c>
       <c r="N50" t="s">
-        <v>144</v>
+        <v>182</v>
+      </c>
+      <c r="O50" t="s">
+        <v>215</v>
+      </c>
+      <c r="P50" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B51" t="b">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0289792444245609</v>
+        <v>0.0252863402500571</v>
       </c>
       <c r="D51" t="n">
-        <v>418</v>
+        <v>794</v>
       </c>
       <c r="E51" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F51" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G51" t="n">
-        <v>0.137404580152672</v>
+        <v>0.179310344827586</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0430622009569378</v>
+        <v>0.0327455919395466</v>
       </c>
       <c r="I51" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="J51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K51" t="s">
-        <v>146</v>
+        <v>231</v>
       </c>
       <c r="L51" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M51" t="n">
-        <v>3159</v>
+        <v>2983</v>
       </c>
       <c r="N51" t="s">
-        <v>142</v>
+        <v>232</v>
+      </c>
+      <c r="O51" t="s">
+        <v>233</v>
+      </c>
+      <c r="P51" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B52" t="b">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0326905057255075</v>
+        <v>0.0294015839630987</v>
       </c>
       <c r="D52" t="n">
-        <v>993</v>
+        <v>1823</v>
       </c>
       <c r="E52" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F52" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G52" t="n">
-        <v>0.221374045801527</v>
+        <v>0.296551724137931</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0292044310171198</v>
+        <v>0.0235874931431706</v>
       </c>
       <c r="I52" t="s">
-        <v>147</v>
+        <v>235</v>
       </c>
       <c r="J52" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K52" t="s">
-        <v>148</v>
+        <v>236</v>
       </c>
       <c r="L52" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M52" t="n">
-        <v>4067</v>
+        <v>3648</v>
       </c>
       <c r="N52" t="s">
-        <v>77</v>
+        <v>237</v>
+      </c>
+      <c r="O52" t="s">
+        <v>238</v>
+      </c>
+      <c r="P52" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B53" t="b">
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0356534322917573</v>
+        <v>0.0000000574205265462159</v>
       </c>
       <c r="D53" t="n">
-        <v>424</v>
+        <v>1577</v>
       </c>
       <c r="E53" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F53" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G53" t="n">
-        <v>0.137404580152672</v>
+        <v>0.344827586206897</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0424528301886792</v>
+        <v>0.0317057704502219</v>
       </c>
       <c r="I53" t="s">
-        <v>144</v>
+        <v>240</v>
       </c>
       <c r="J53" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="K53" t="s">
-        <v>149</v>
+        <v>242</v>
       </c>
       <c r="L53" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M53" t="n">
-        <v>22332</v>
+        <v>3453</v>
       </c>
       <c r="N53" t="s">
-        <v>150</v>
+        <v>243</v>
+      </c>
+      <c r="O53" t="s">
+        <v>244</v>
+      </c>
+      <c r="P53" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B54" t="b">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0484247397149476</v>
+        <v>0.000000317787887425511</v>
       </c>
       <c r="D54" t="n">
-        <v>1071</v>
+        <v>1650</v>
       </c>
       <c r="E54" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F54" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G54" t="n">
-        <v>0.229007633587786</v>
+        <v>0.344827586206897</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0280112044817927</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="I54" t="s">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="J54" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="K54" t="s">
-        <v>152</v>
+        <v>246</v>
       </c>
       <c r="L54" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M54" t="n">
-        <v>22777</v>
+        <v>1850</v>
       </c>
       <c r="N54" t="s">
-        <v>153</v>
+        <v>247</v>
+      </c>
+      <c r="O54" t="s">
+        <v>248</v>
+      </c>
+      <c r="P54" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B55" t="b">
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0000000419857008997371</v>
+        <v>0.000000413162866293937</v>
       </c>
       <c r="D55" t="n">
-        <v>3029</v>
+        <v>292</v>
       </c>
       <c r="E55" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F55" t="n">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="G55" t="n">
-        <v>0.541984732824427</v>
+        <v>0.144827586206897</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0234400792340707</v>
+        <v>0.0719178082191781</v>
       </c>
       <c r="I55" t="s">
-        <v>154</v>
+        <v>249</v>
       </c>
       <c r="J55" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="K55" t="s">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="L55" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M55" t="n">
-        <v>3128</v>
+        <v>930</v>
       </c>
       <c r="N55" t="s">
-        <v>157</v>
+        <v>251</v>
+      </c>
+      <c r="O55" t="s">
+        <v>252</v>
+      </c>
+      <c r="P55" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B56" t="b">
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0.000000054673805289469</v>
+        <v>0.000000413162866293937</v>
       </c>
       <c r="D56" t="n">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="E56" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F56" t="n">
         <v>21</v>
       </c>
       <c r="G56" t="n">
-        <v>0.16030534351145</v>
+        <v>0.144827586206897</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0780669144981413</v>
+        <v>0.0719178082191781</v>
       </c>
       <c r="I56" t="s">
-        <v>158</v>
+        <v>254</v>
       </c>
       <c r="J56" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="K56" t="s">
-        <v>159</v>
+        <v>255</v>
       </c>
       <c r="L56" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M56" t="n">
-        <v>1093</v>
+        <v>1031</v>
       </c>
       <c r="N56" t="s">
-        <v>160</v>
+        <v>249</v>
+      </c>
+      <c r="O56" t="s">
+        <v>252</v>
+      </c>
+      <c r="P56" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B57" t="b">
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0.000000054673805289469</v>
+        <v>0.00000111648261026632</v>
       </c>
       <c r="D57" t="n">
-        <v>269</v>
+        <v>3251</v>
       </c>
       <c r="E57" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F57" t="n">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="G57" t="n">
-        <v>0.16030534351145</v>
+        <v>0.503448275862069</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0780669144981413</v>
+        <v>0.022454629344817</v>
       </c>
       <c r="I57" t="s">
-        <v>161</v>
+        <v>256</v>
       </c>
       <c r="J57" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="K57" t="s">
-        <v>162</v>
+        <v>257</v>
       </c>
       <c r="L57" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M57" t="n">
-        <v>1197</v>
+        <v>2801</v>
       </c>
       <c r="N57" t="s">
-        <v>158</v>
+        <v>247</v>
+      </c>
+      <c r="O57" t="s">
+        <v>258</v>
+      </c>
+      <c r="P57" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B58" t="b">
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0000716560211023215</v>
+        <v>0.0000348545389220048</v>
       </c>
       <c r="D58" t="n">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="E58" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F58" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G58" t="n">
-        <v>0.122137404580153</v>
+        <v>0.117241379310345</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0740740740740741</v>
+        <v>0.0732758620689655</v>
       </c>
       <c r="I58" t="s">
-        <v>163</v>
+        <v>260</v>
       </c>
       <c r="J58" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="K58" t="s">
-        <v>164</v>
+        <v>261</v>
       </c>
       <c r="L58" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M58" t="n">
-        <v>2675</v>
+        <v>2367</v>
       </c>
       <c r="N58" t="s">
-        <v>161</v>
+        <v>254</v>
+      </c>
+      <c r="O58" t="s">
+        <v>262</v>
+      </c>
+      <c r="P58" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B59" t="b">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0.000146101191985851</v>
+        <v>0.0000483271715231322</v>
       </c>
       <c r="D59" t="n">
-        <v>1442</v>
+        <v>968</v>
       </c>
       <c r="E59" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F59" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G59" t="n">
-        <v>0.312977099236641</v>
+        <v>0.23448275862069</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0284327323162275</v>
+        <v>0.0351239669421488</v>
       </c>
       <c r="I59" t="s">
-        <v>165</v>
+        <v>264</v>
       </c>
       <c r="J59" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="K59" t="s">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="L59" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M59" t="n">
-        <v>3858</v>
+        <v>1851</v>
       </c>
       <c r="N59" t="s">
-        <v>167</v>
+        <v>240</v>
+      </c>
+      <c r="O59" t="s">
+        <v>266</v>
+      </c>
+      <c r="P59" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B60" t="b">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0.000515022349893562</v>
+        <v>0.00481897808583852</v>
       </c>
       <c r="D60" t="n">
-        <v>1505</v>
+        <v>2240</v>
       </c>
       <c r="E60" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F60" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G60" t="n">
-        <v>0.312977099236641</v>
+        <v>0.351724137931034</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0272425249169435</v>
+        <v>0.0227678571428571</v>
       </c>
       <c r="I60" t="s">
-        <v>167</v>
+        <v>268</v>
       </c>
       <c r="J60" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="K60" t="s">
-        <v>168</v>
+        <v>269</v>
       </c>
       <c r="L60" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M60" t="n">
-        <v>2089</v>
+        <v>198</v>
       </c>
       <c r="N60" t="s">
-        <v>157</v>
+        <v>247</v>
+      </c>
+      <c r="O60" t="s">
+        <v>270</v>
+      </c>
+      <c r="P60" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B61" t="b">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0.00786362440311924</v>
+        <v>0.0416247167478196</v>
       </c>
       <c r="D61" t="n">
-        <v>2784</v>
+        <v>2979</v>
       </c>
       <c r="E61" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F61" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G61" t="n">
-        <v>0.435114503816794</v>
+        <v>0.406896551724138</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0204741379310345</v>
+        <v>0.0198053037932192</v>
       </c>
       <c r="I61" t="s">
-        <v>169</v>
+        <v>272</v>
       </c>
       <c r="J61" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="K61" t="s">
-        <v>170</v>
+        <v>273</v>
       </c>
       <c r="L61" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M61" t="n">
-        <v>514</v>
+        <v>424</v>
       </c>
       <c r="N61" t="s">
-        <v>171</v>
+        <v>274</v>
+      </c>
+      <c r="O61" t="s">
+        <v>275</v>
+      </c>
+      <c r="P61" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B62" t="b">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0.00912030486454624</v>
+        <v>0.0424114775053582</v>
       </c>
       <c r="D62" t="n">
-        <v>879</v>
+        <v>420</v>
       </c>
       <c r="E62" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F62" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G62" t="n">
-        <v>0.213740458015267</v>
+        <v>0.124137931034483</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0318543799772469</v>
+        <v>0.0428571428571429</v>
       </c>
       <c r="I62" t="s">
-        <v>172</v>
+        <v>277</v>
       </c>
       <c r="J62" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="K62" t="s">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="L62" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M62" t="n">
-        <v>2090</v>
+        <v>663</v>
       </c>
       <c r="N62" t="s">
-        <v>165</v>
+        <v>247</v>
+      </c>
+      <c r="O62" t="s">
+        <v>279</v>
+      </c>
+      <c r="P62" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B63" t="b">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0111585038714547</v>
+        <v>0.00144581375633695</v>
       </c>
       <c r="D63" t="n">
-        <v>2154</v>
+        <v>786</v>
       </c>
       <c r="E63" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F63" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G63" t="n">
-        <v>0.366412213740458</v>
+        <v>0.193103448275862</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0222841225626741</v>
+        <v>0.0356234096692112</v>
       </c>
       <c r="I63" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="J63" t="s">
-        <v>155</v>
+        <v>282</v>
       </c>
       <c r="K63" t="s">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="L63" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M63" t="n">
-        <v>240</v>
+        <v>1281</v>
       </c>
       <c r="N63" t="s">
-        <v>157</v>
+        <v>284</v>
+      </c>
+      <c r="O63" t="s">
+        <v>285</v>
+      </c>
+      <c r="P63" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B64" t="b">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0130986624644987</v>
+        <v>0.0251515826953768</v>
       </c>
       <c r="D64" t="n">
-        <v>396</v>
+        <v>114</v>
       </c>
       <c r="E64" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F64" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>0.137404580152672</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0454545454545455</v>
+        <v>0.087719298245614</v>
       </c>
       <c r="I64" t="s">
-        <v>176</v>
+        <v>287</v>
       </c>
       <c r="J64" t="s">
-        <v>155</v>
+        <v>282</v>
       </c>
       <c r="K64" t="s">
-        <v>177</v>
+        <v>288</v>
       </c>
       <c r="L64" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M64" t="n">
-        <v>790</v>
+        <v>1511</v>
       </c>
       <c r="N64" t="s">
-        <v>157</v>
+        <v>289</v>
+      </c>
+      <c r="O64" t="s">
+        <v>290</v>
+      </c>
+      <c r="P64" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B65" t="b">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0.017385761110281</v>
+        <v>0.0332171977326387</v>
       </c>
       <c r="D65" t="n">
-        <v>907</v>
+        <v>147</v>
       </c>
       <c r="E65" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F65" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G65" t="n">
-        <v>0.213740458015267</v>
+        <v>0.0758620689655172</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0308710033076075</v>
+        <v>0.0748299319727891</v>
       </c>
       <c r="I65" t="s">
-        <v>178</v>
+        <v>292</v>
       </c>
       <c r="J65" t="s">
-        <v>155</v>
+        <v>282</v>
       </c>
       <c r="K65" t="s">
-        <v>179</v>
+        <v>293</v>
       </c>
       <c r="L65" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M65" t="n">
-        <v>2443</v>
+        <v>7308</v>
       </c>
       <c r="N65" t="s">
-        <v>180</v>
+        <v>294</v>
+      </c>
+      <c r="O65" t="s">
+        <v>295</v>
+      </c>
+      <c r="P65" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B66" t="b">
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0.00460631760527045</v>
+        <v>0.0378393706844137</v>
       </c>
       <c r="D66" t="n">
-        <v>745</v>
+        <v>92</v>
       </c>
       <c r="E66" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F66" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G66" t="n">
-        <v>0.198473282442748</v>
+        <v>0.0620689655172414</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0348993288590604</v>
+        <v>0.0978260869565217</v>
       </c>
       <c r="I66" t="s">
-        <v>181</v>
+        <v>297</v>
       </c>
       <c r="J66" t="s">
-        <v>182</v>
+        <v>282</v>
       </c>
       <c r="K66" t="s">
-        <v>183</v>
+        <v>298</v>
       </c>
       <c r="L66" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M66" t="n">
-        <v>1606</v>
+        <v>3736</v>
       </c>
       <c r="N66" t="s">
-        <v>184</v>
+        <v>284</v>
+      </c>
+      <c r="O66" t="s">
+        <v>299</v>
+      </c>
+      <c r="P66" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B67" t="b">
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0105968783298216</v>
+        <v>0.0495077646481343</v>
       </c>
       <c r="D67" t="n">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="E67" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0763358778625954</v>
+        <v>0.0758620689655172</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0943396226415094</v>
+        <v>0.0718954248366013</v>
       </c>
       <c r="I67" t="s">
-        <v>185</v>
+        <v>301</v>
       </c>
       <c r="J67" t="s">
-        <v>182</v>
+        <v>282</v>
       </c>
       <c r="K67" t="s">
-        <v>186</v>
+        <v>302</v>
       </c>
       <c r="L67" t="n">
-        <v>12068</v>
+        <v>13136</v>
       </c>
       <c r="M67" t="n">
-        <v>1899</v>
+        <v>3967</v>
       </c>
       <c r="N67" t="s">
-        <v>187</v>
+        <v>303</v>
+      </c>
+      <c r="O67" t="s">
+        <v>304</v>
+      </c>
+      <c r="P67" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B68" t="b">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0.022747912865542</v>
+        <v>0.00670787331145794</v>
       </c>
       <c r="D68" t="n">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="E68" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F68" t="n">
+        <v>8</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0551724137931034</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.0740740740740741</v>
+      </c>
+      <c r="I68" t="s">
+        <v>305</v>
+      </c>
+      <c r="J68" t="s">
+        <v>306</v>
+      </c>
+      <c r="K68" t="s">
+        <v>307</v>
+      </c>
+      <c r="L68" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M68" t="n">
+        <v>175</v>
+      </c>
+      <c r="N68" t="s">
+        <v>308</v>
+      </c>
+      <c r="O68" t="s">
+        <v>309</v>
+      </c>
+      <c r="P68" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.0118224135008355</v>
+      </c>
+      <c r="D69" t="n">
+        <v>72</v>
+      </c>
+      <c r="E69" t="n">
+        <v>145</v>
+      </c>
+      <c r="F69" t="n">
+        <v>6</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0413793103448276</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="I69" t="s">
+        <v>311</v>
+      </c>
+      <c r="J69" t="s">
+        <v>312</v>
+      </c>
+      <c r="K69" t="s">
+        <v>313</v>
+      </c>
+      <c r="L69" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M69" t="n">
+        <v>298</v>
+      </c>
+      <c r="N69" t="s">
+        <v>314</v>
+      </c>
+      <c r="O69" t="s">
+        <v>315</v>
+      </c>
+      <c r="P69" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.018410746235951</v>
+      </c>
+      <c r="D70" t="n">
+        <v>78</v>
+      </c>
+      <c r="E70" t="n">
+        <v>145</v>
+      </c>
+      <c r="F70" t="n">
+        <v>6</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0413793103448276</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.0769230769230769</v>
+      </c>
+      <c r="I70" t="s">
+        <v>317</v>
+      </c>
+      <c r="J70" t="s">
+        <v>312</v>
+      </c>
+      <c r="K70" t="s">
+        <v>318</v>
+      </c>
+      <c r="L70" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M70" t="n">
+        <v>248</v>
+      </c>
+      <c r="N70" t="s">
+        <v>314</v>
+      </c>
+      <c r="O70" t="s">
+        <v>315</v>
+      </c>
+      <c r="P70" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.0313763545398863</v>
+      </c>
+      <c r="D71" t="n">
+        <v>56</v>
+      </c>
+      <c r="E71" t="n">
+        <v>145</v>
+      </c>
+      <c r="F71" t="n">
         <v>5</v>
       </c>
-      <c r="G68" t="n">
-        <v>0.0381679389312977</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.0943396226415094</v>
-      </c>
-      <c r="I68" t="s">
-        <v>188</v>
-      </c>
-      <c r="J68" t="s">
-        <v>189</v>
-      </c>
-      <c r="K68" t="s">
-        <v>190</v>
-      </c>
-      <c r="L68" t="n">
-        <v>12068</v>
-      </c>
-      <c r="M68" t="n">
-        <v>339</v>
-      </c>
-      <c r="N68" t="s">
-        <v>191</v>
+      <c r="G71" t="n">
+        <v>0.0344827586206897</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.0892857142857143</v>
+      </c>
+      <c r="I71" t="s">
+        <v>320</v>
+      </c>
+      <c r="J71" t="s">
+        <v>312</v>
+      </c>
+      <c r="K71" t="s">
+        <v>321</v>
+      </c>
+      <c r="L71" t="n">
+        <v>13136</v>
+      </c>
+      <c r="M71" t="n">
+        <v>350</v>
+      </c>
+      <c r="N71" t="s">
+        <v>314</v>
+      </c>
+      <c r="O71" t="s">
+        <v>322</v>
+      </c>
+      <c r="P71" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
